--- a/PITS/A06_pit_25Mar2019.xlsx
+++ b/PITS/A06_pit_25Mar2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u4rf9zrc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpm/HP_DRIVE/GrandMesaMarch2019/PITS/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE370460-AE5E-B749-A709-B9B9A19B11AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="495" windowWidth="25125" windowHeight="15585" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="29320" windowHeight="17780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIT" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="313">
   <si>
     <t>Location:</t>
   </si>
@@ -1182,9 +1183,6 @@
     <t>A06</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Brucker, Courville</t>
   </si>
   <si>
@@ -1254,7 +1252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29">
     <font>
       <sz val="10"/>
@@ -3555,74 +3553,397 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -3642,9 +3963,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -3678,554 +3996,158 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -4260,125 +4182,241 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4386,10 +4424,25 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4406,61 +4459,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4472,7 +4470,7 @@
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4572,7 +4570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4632,7 +4636,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4692,7 +4702,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4752,7 +4768,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4812,7 +4834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvPr id="6" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4872,7 +4900,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4932,7 +4966,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvPr id="8" name="Oval 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5266,281 +5306,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AF6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" hidden="1"/>
-    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="1" customWidth="1"/>
-    <col min="18" max="20" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" hidden="1"/>
+    <col min="2" max="2" width="6.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="1.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
+    <col min="18" max="20" width="4.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="1.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="1.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.42578125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="1.140625" style="1" customWidth="1"/>
-    <col min="30" max="31" width="3.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="1" customWidth="1"/>
-    <col min="33" max="1030" width="8.28515625" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="1.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="1.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="1.1640625" style="1" customWidth="1"/>
+    <col min="30" max="31" width="3.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" style="1" customWidth="1"/>
+    <col min="33" max="1030" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.95" customHeight="1" thickTop="1">
+    <row r="1" spans="1:32" ht="16" customHeight="1" thickTop="1">
       <c r="A1" s="24"/>
-      <c r="B1" s="300" t="s">
+      <c r="B1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="303" t="s">
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="J1" s="301"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="312" t="s">
+      <c r="J1" s="190"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="313"/>
-      <c r="T1" s="313"/>
-      <c r="U1" s="313"/>
-      <c r="V1" s="314"/>
-      <c r="W1" s="230" t="s">
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="231"/>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="231"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="276"/>
     </row>
     <row r="2" spans="1:32" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="230" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="297">
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="186">
         <v>3043</v>
       </c>
-      <c r="J2" s="298"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="315" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="317"/>
-      <c r="W2" s="233" t="s">
-        <v>313</v>
-      </c>
-      <c r="X2" s="234"/>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="234"/>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="234"/>
-      <c r="AD2" s="234"/>
-      <c r="AE2" s="234"/>
-      <c r="AF2" s="235"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="205" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="277" t="s">
+        <v>312</v>
+      </c>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="278"/>
+      <c r="AB2" s="278"/>
+      <c r="AC2" s="278"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="279"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="220" t="s">
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="221"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="320" t="s">
+      <c r="J3" s="328"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="320"/>
-      <c r="N3" s="320"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="318" t="s">
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="319"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="210"/>
       <c r="V3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="236"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="237"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="237"/>
-      <c r="AE3" s="237"/>
-      <c r="AF3" s="238"/>
-    </row>
-    <row r="4" spans="1:32" ht="29.1" customHeight="1" thickBot="1">
+      <c r="W3" s="280"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
+      <c r="AA3" s="281"/>
+      <c r="AB3" s="281"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="281"/>
+      <c r="AE3" s="281"/>
+      <c r="AF3" s="282"/>
+    </row>
+    <row r="4" spans="1:32" ht="29" customHeight="1" thickBot="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="218" t="s">
+      <c r="B4" s="325" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="223" t="s">
-        <v>291</v>
-      </c>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="323">
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
+      <c r="H4" s="326"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="331"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="219">
         <v>742617</v>
       </c>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="326">
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="222">
         <v>4323908</v>
       </c>
-      <c r="Q4" s="326"/>
-      <c r="R4" s="326"/>
-      <c r="S4" s="326"/>
-      <c r="T4" s="326"/>
-      <c r="U4" s="327"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223"/>
       <c r="V4" s="169">
         <v>12</v>
       </c>
-      <c r="W4" s="236"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="237"/>
-      <c r="Z4" s="237"/>
-      <c r="AA4" s="237"/>
-      <c r="AB4" s="237"/>
-      <c r="AC4" s="237"/>
-      <c r="AD4" s="237"/>
-      <c r="AE4" s="237"/>
-      <c r="AF4" s="238"/>
-    </row>
-    <row r="5" spans="1:32" ht="29.1" customHeight="1">
+      <c r="W4" s="280"/>
+      <c r="X4" s="281"/>
+      <c r="Y4" s="281"/>
+      <c r="Z4" s="281"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="281"/>
+      <c r="AD4" s="281"/>
+      <c r="AE4" s="281"/>
+      <c r="AF4" s="282"/>
+    </row>
+    <row r="5" spans="1:32" ht="29" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="225" t="s">
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="332" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="226"/>
-      <c r="I5" s="214" t="s">
+      <c r="H5" s="333"/>
+      <c r="I5" s="322" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="214"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="328" t="s">
+      <c r="J5" s="322"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="224" t="s">
         <v>255</v>
       </c>
-      <c r="M5" s="329"/>
-      <c r="N5" s="330" t="s">
+      <c r="M5" s="225"/>
+      <c r="N5" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="331"/>
-      <c r="P5" s="206" t="s">
+      <c r="O5" s="227"/>
+      <c r="P5" s="315" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="210" t="s">
+      <c r="Q5" s="316"/>
+      <c r="R5" s="318" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="210"/>
-      <c r="T5" s="210"/>
-      <c r="U5" s="207"/>
+      <c r="S5" s="318"/>
+      <c r="T5" s="318"/>
+      <c r="U5" s="316"/>
       <c r="V5" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="236"/>
-      <c r="X5" s="237"/>
-      <c r="Y5" s="237"/>
-      <c r="Z5" s="237"/>
-      <c r="AA5" s="237"/>
-      <c r="AB5" s="237"/>
-      <c r="AC5" s="237"/>
-      <c r="AD5" s="237"/>
-      <c r="AE5" s="237"/>
-      <c r="AF5" s="238"/>
-    </row>
-    <row r="6" spans="1:32" ht="32.1" customHeight="1" thickBot="1">
+      <c r="W5" s="280"/>
+      <c r="X5" s="281"/>
+      <c r="Y5" s="281"/>
+      <c r="Z5" s="281"/>
+      <c r="AA5" s="281"/>
+      <c r="AB5" s="281"/>
+      <c r="AC5" s="281"/>
+      <c r="AD5" s="281"/>
+      <c r="AE5" s="281"/>
+      <c r="AF5" s="282"/>
+    </row>
+    <row r="6" spans="1:32" ht="32" customHeight="1" thickBot="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="244"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="227">
+      <c r="B6" s="288"/>
+      <c r="C6" s="289"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="334">
         <v>200</v>
       </c>
-      <c r="H6" s="228"/>
+      <c r="H6" s="335"/>
       <c r="I6" s="176" t="s">
         <v>268</v>
       </c>
@@ -5554,78 +5592,78 @@
       <c r="M6" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="332"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="208"/>
-      <c r="Q6" s="209"/>
-      <c r="R6" s="211">
+      <c r="N6" s="228"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="319">
         <v>43549</v>
       </c>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
-      <c r="U6" s="213"/>
+      <c r="S6" s="320"/>
+      <c r="T6" s="320"/>
+      <c r="U6" s="321"/>
       <c r="V6" s="44">
         <v>1615</v>
       </c>
-      <c r="W6" s="239"/>
-      <c r="X6" s="240"/>
-      <c r="Y6" s="240"/>
-      <c r="Z6" s="240"/>
-      <c r="AA6" s="240"/>
-      <c r="AB6" s="240"/>
-      <c r="AC6" s="240"/>
-      <c r="AD6" s="240"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="241"/>
-    </row>
-    <row r="7" spans="1:32" s="6" customFormat="1" ht="29.1" customHeight="1">
+      <c r="W6" s="283"/>
+      <c r="X6" s="284"/>
+      <c r="Y6" s="284"/>
+      <c r="Z6" s="284"/>
+      <c r="AA6" s="284"/>
+      <c r="AB6" s="284"/>
+      <c r="AC6" s="284"/>
+      <c r="AD6" s="284"/>
+      <c r="AE6" s="284"/>
+      <c r="AF6" s="285"/>
+    </row>
+    <row r="7" spans="1:32" s="6" customFormat="1" ht="29" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="305" t="s">
+      <c r="B7" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="260" t="s">
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="303" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="262"/>
-      <c r="L7" s="258" t="s">
+      <c r="I7" s="304"/>
+      <c r="J7" s="304"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="301" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="259"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="252" t="s">
+      <c r="M7" s="302"/>
+      <c r="N7" s="298"/>
+      <c r="O7" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="253"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="253"/>
-      <c r="U7" s="253"/>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="253"/>
-      <c r="Z7" s="253"/>
-      <c r="AA7" s="253"/>
-      <c r="AB7" s="253"/>
-      <c r="AC7" s="253"/>
-      <c r="AD7" s="253"/>
-      <c r="AE7" s="253"/>
-      <c r="AF7" s="254"/>
-    </row>
-    <row r="8" spans="1:32" ht="37.35" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="P7" s="296"/>
+      <c r="Q7" s="296"/>
+      <c r="R7" s="296"/>
+      <c r="S7" s="296"/>
+      <c r="T7" s="296"/>
+      <c r="U7" s="296"/>
+      <c r="V7" s="296"/>
+      <c r="W7" s="296"/>
+      <c r="X7" s="296"/>
+      <c r="Y7" s="296"/>
+      <c r="Z7" s="296"/>
+      <c r="AA7" s="296"/>
+      <c r="AB7" s="296"/>
+      <c r="AC7" s="296"/>
+      <c r="AD7" s="296"/>
+      <c r="AE7" s="296"/>
+      <c r="AF7" s="297"/>
+    </row>
+    <row r="8" spans="1:32" ht="37.25" customHeight="1">
+      <c r="B8" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="310"/>
-      <c r="D8" s="310"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
@@ -5635,53 +5673,53 @@
       <c r="G8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="321" t="s">
+      <c r="H8" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="322"/>
-      <c r="J8" s="308" t="s">
+      <c r="I8" s="215"/>
+      <c r="J8" s="198" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="309"/>
+      <c r="K8" s="199"/>
       <c r="L8" s="47" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="256"/>
-      <c r="O8" s="275" t="s">
+      <c r="N8" s="299"/>
+      <c r="O8" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="277" t="s">
+      <c r="P8" s="269"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="271" t="s">
         <v>105</v>
       </c>
-      <c r="S8" s="278"/>
-      <c r="T8" s="279"/>
-      <c r="U8" s="311" t="s">
+      <c r="S8" s="272"/>
+      <c r="T8" s="273"/>
+      <c r="U8" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="250" t="s">
+      <c r="V8" s="270" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="248" t="s">
+      <c r="W8" s="292" t="s">
         <v>108</v>
       </c>
-      <c r="X8" s="263" t="s">
+      <c r="X8" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="264"/>
-    </row>
-    <row r="9" spans="1:32" ht="29.1" customHeight="1">
+      <c r="Y8" s="306"/>
+      <c r="Z8" s="306"/>
+      <c r="AA8" s="306"/>
+      <c r="AB8" s="306"/>
+      <c r="AC8" s="306"/>
+      <c r="AD8" s="306"/>
+      <c r="AE8" s="306"/>
+      <c r="AF8" s="307"/>
+    </row>
+    <row r="9" spans="1:32" ht="29" customHeight="1">
       <c r="B9" s="28" t="s">
         <v>19</v>
       </c>
@@ -5718,7 +5756,7 @@
       <c r="M9" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="256"/>
+      <c r="N9" s="299"/>
       <c r="O9" s="103" t="s">
         <v>19</v>
       </c>
@@ -5737,20 +5775,20 @@
       <c r="T9" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="U9" s="311"/>
-      <c r="V9" s="251"/>
-      <c r="W9" s="249"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="265"/>
-      <c r="Z9" s="265"/>
-      <c r="AA9" s="265"/>
-      <c r="AB9" s="265"/>
-      <c r="AC9" s="265"/>
-      <c r="AD9" s="265"/>
-      <c r="AE9" s="265"/>
-      <c r="AF9" s="266"/>
-    </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="U9" s="201"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="308"/>
+      <c r="Y9" s="308"/>
+      <c r="Z9" s="308"/>
+      <c r="AA9" s="308"/>
+      <c r="AB9" s="308"/>
+      <c r="AC9" s="308"/>
+      <c r="AD9" s="308"/>
+      <c r="AE9" s="308"/>
+      <c r="AF9" s="309"/>
+    </row>
+    <row r="10" spans="1:32" ht="20" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>284</v>
       </c>
@@ -5771,41 +5809,41 @@
       <c r="M10" s="65">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="N10" s="256"/>
-      <c r="O10" s="270">
+      <c r="N10" s="299"/>
+      <c r="O10" s="216">
         <v>200</v>
       </c>
-      <c r="P10" s="274" t="s">
+      <c r="P10" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="274" t="s">
-        <v>294</v>
-      </c>
-      <c r="R10" s="292" t="s">
-        <v>310</v>
-      </c>
-      <c r="S10" s="272"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="291" t="s">
+      <c r="Q10" s="194" t="s">
+        <v>293</v>
+      </c>
+      <c r="R10" s="213" t="s">
+        <v>309</v>
+      </c>
+      <c r="S10" s="218"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="V10" s="285" t="s">
+      <c r="V10" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="246" t="s">
+      <c r="W10" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="X10" s="283"/>
-      <c r="Y10" s="186"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="187"/>
-    </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="X10" s="258"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="259"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="259"/>
+      <c r="AC10" s="259"/>
+      <c r="AD10" s="259"/>
+      <c r="AE10" s="259"/>
+      <c r="AF10" s="260"/>
+    </row>
+    <row r="11" spans="1:32" ht="20" customHeight="1">
       <c r="B11" s="9">
         <v>200</v>
       </c>
@@ -5832,27 +5870,27 @@
       <c r="M11" s="63">
         <v>-4.8</v>
       </c>
-      <c r="N11" s="256"/>
-      <c r="O11" s="271"/>
-      <c r="P11" s="274"/>
-      <c r="Q11" s="274"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="272"/>
-      <c r="T11" s="280"/>
-      <c r="U11" s="292"/>
-      <c r="V11" s="286"/>
-      <c r="W11" s="247"/>
-      <c r="X11" s="284"/>
-      <c r="Y11" s="267"/>
-      <c r="Z11" s="267"/>
-      <c r="AA11" s="267"/>
-      <c r="AB11" s="267"/>
-      <c r="AC11" s="267"/>
-      <c r="AD11" s="267"/>
-      <c r="AE11" s="267"/>
-      <c r="AF11" s="268"/>
-    </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="N11" s="299"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="218"/>
+      <c r="S11" s="218"/>
+      <c r="T11" s="240"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="248"/>
+      <c r="W11" s="291"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="262"/>
+      <c r="AD11" s="262"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="263"/>
+    </row>
+    <row r="12" spans="1:32" ht="20" customHeight="1">
       <c r="B12" s="9">
         <v>190</v>
       </c>
@@ -5879,43 +5917,43 @@
       <c r="M12" s="61">
         <v>-5.2</v>
       </c>
-      <c r="N12" s="256"/>
-      <c r="O12" s="270">
+      <c r="N12" s="299"/>
+      <c r="O12" s="216">
         <v>199</v>
       </c>
-      <c r="P12" s="274" t="s">
+      <c r="P12" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="274" t="s">
-        <v>293</v>
-      </c>
-      <c r="R12" s="272" t="s">
+      <c r="Q12" s="194" t="s">
+        <v>292</v>
+      </c>
+      <c r="R12" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S12" s="218"/>
+      <c r="T12" s="265"/>
+      <c r="U12" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="V12" s="247" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="266" t="s">
+        <v>194</v>
+      </c>
+      <c r="X12" s="259" t="s">
         <v>310</v>
       </c>
-      <c r="S12" s="272"/>
-      <c r="T12" s="287"/>
-      <c r="U12" s="291" t="s">
-        <v>180</v>
-      </c>
-      <c r="V12" s="285" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="204" t="s">
-        <v>194</v>
-      </c>
-      <c r="X12" s="186" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="187"/>
-    </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="Y12" s="259"/>
+      <c r="Z12" s="259"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="259"/>
+      <c r="AC12" s="259"/>
+      <c r="AD12" s="259"/>
+      <c r="AE12" s="259"/>
+      <c r="AF12" s="260"/>
+    </row>
+    <row r="13" spans="1:32" ht="20" customHeight="1">
       <c r="B13" s="9">
         <v>180</v>
       </c>
@@ -5944,27 +5982,27 @@
       <c r="M13" s="65">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="N13" s="256"/>
-      <c r="O13" s="271"/>
-      <c r="P13" s="274"/>
-      <c r="Q13" s="274"/>
-      <c r="R13" s="272"/>
-      <c r="S13" s="272"/>
-      <c r="T13" s="287"/>
-      <c r="U13" s="292"/>
-      <c r="V13" s="286"/>
-      <c r="W13" s="205"/>
-      <c r="X13" s="267"/>
-      <c r="Y13" s="267"/>
-      <c r="Z13" s="267"/>
-      <c r="AA13" s="267"/>
-      <c r="AB13" s="267"/>
-      <c r="AC13" s="267"/>
-      <c r="AD13" s="267"/>
-      <c r="AE13" s="267"/>
-      <c r="AF13" s="268"/>
-    </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="N13" s="299"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="218"/>
+      <c r="S13" s="218"/>
+      <c r="T13" s="265"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="248"/>
+      <c r="W13" s="267"/>
+      <c r="X13" s="262"/>
+      <c r="Y13" s="262"/>
+      <c r="Z13" s="262"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="262"/>
+      <c r="AC13" s="262"/>
+      <c r="AD13" s="262"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="263"/>
+    </row>
+    <row r="14" spans="1:32" ht="20" customHeight="1">
       <c r="B14" s="9">
         <v>170</v>
       </c>
@@ -5991,41 +6029,41 @@
       <c r="M14" s="65">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="N14" s="256"/>
-      <c r="O14" s="270">
+      <c r="N14" s="299"/>
+      <c r="O14" s="216">
         <v>197</v>
       </c>
-      <c r="P14" s="274" t="s">
+      <c r="P14" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="274" t="s">
-        <v>295</v>
-      </c>
-      <c r="R14" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S14" s="273"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="291" t="s">
+      <c r="Q14" s="194" t="s">
+        <v>294</v>
+      </c>
+      <c r="R14" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S14" s="241"/>
+      <c r="T14" s="251"/>
+      <c r="U14" s="212" t="s">
         <v>185</v>
       </c>
-      <c r="V14" s="285" t="s">
+      <c r="V14" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="204" t="s">
+      <c r="W14" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="187"/>
-    </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="X14" s="259"/>
+      <c r="Y14" s="259"/>
+      <c r="Z14" s="259"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="259"/>
+      <c r="AC14" s="259"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="260"/>
+    </row>
+    <row r="15" spans="1:32" ht="20" customHeight="1">
       <c r="B15" s="9">
         <v>160</v>
       </c>
@@ -6052,27 +6090,27 @@
       <c r="M15" s="62">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="N15" s="256"/>
-      <c r="O15" s="271"/>
-      <c r="P15" s="274"/>
-      <c r="Q15" s="274"/>
-      <c r="R15" s="272"/>
-      <c r="S15" s="273"/>
-      <c r="T15" s="282"/>
-      <c r="U15" s="292"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="205"/>
-      <c r="X15" s="267"/>
-      <c r="Y15" s="267"/>
-      <c r="Z15" s="267"/>
-      <c r="AA15" s="267"/>
-      <c r="AB15" s="267"/>
-      <c r="AC15" s="267"/>
-      <c r="AD15" s="267"/>
-      <c r="AE15" s="267"/>
-      <c r="AF15" s="268"/>
-    </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="N15" s="299"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="218"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="264"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="248"/>
+      <c r="W15" s="267"/>
+      <c r="X15" s="262"/>
+      <c r="Y15" s="262"/>
+      <c r="Z15" s="262"/>
+      <c r="AA15" s="262"/>
+      <c r="AB15" s="262"/>
+      <c r="AC15" s="262"/>
+      <c r="AD15" s="262"/>
+      <c r="AE15" s="262"/>
+      <c r="AF15" s="263"/>
+    </row>
+    <row r="16" spans="1:32" ht="20" customHeight="1">
       <c r="B16" s="9">
         <v>150</v>
       </c>
@@ -6099,41 +6137,41 @@
       <c r="M16" s="65">
         <v>-4.3</v>
       </c>
-      <c r="N16" s="256"/>
-      <c r="O16" s="270">
+      <c r="N16" s="299"/>
+      <c r="O16" s="216">
         <v>184</v>
       </c>
-      <c r="P16" s="274" t="s">
+      <c r="P16" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="274" t="s">
-        <v>296</v>
-      </c>
-      <c r="R16" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S16" s="273"/>
-      <c r="T16" s="196"/>
-      <c r="U16" s="291" t="s">
+      <c r="Q16" s="194" t="s">
+        <v>295</v>
+      </c>
+      <c r="R16" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S16" s="241"/>
+      <c r="T16" s="251"/>
+      <c r="U16" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="V16" s="285" t="s">
+      <c r="V16" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="W16" s="204" t="s">
+      <c r="W16" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="187"/>
-    </row>
-    <row r="17" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X16" s="259"/>
+      <c r="Y16" s="259"/>
+      <c r="Z16" s="259"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="259"/>
+      <c r="AD16" s="259"/>
+      <c r="AE16" s="259"/>
+      <c r="AF16" s="260"/>
+    </row>
+    <row r="17" spans="2:32" ht="20" customHeight="1">
       <c r="B17" s="9">
         <v>140</v>
       </c>
@@ -6160,27 +6198,27 @@
       <c r="M17" s="62">
         <v>-3.9</v>
       </c>
-      <c r="N17" s="256"/>
-      <c r="O17" s="271"/>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="274"/>
-      <c r="R17" s="272"/>
-      <c r="S17" s="273"/>
-      <c r="T17" s="281"/>
-      <c r="U17" s="292"/>
-      <c r="V17" s="286"/>
-      <c r="W17" s="205"/>
-      <c r="X17" s="267"/>
-      <c r="Y17" s="267"/>
-      <c r="Z17" s="267"/>
-      <c r="AA17" s="267"/>
-      <c r="AB17" s="267"/>
-      <c r="AC17" s="267"/>
-      <c r="AD17" s="267"/>
-      <c r="AE17" s="267"/>
-      <c r="AF17" s="268"/>
-    </row>
-    <row r="18" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N17" s="299"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="218"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="213"/>
+      <c r="V17" s="248"/>
+      <c r="W17" s="267"/>
+      <c r="X17" s="262"/>
+      <c r="Y17" s="262"/>
+      <c r="Z17" s="262"/>
+      <c r="AA17" s="262"/>
+      <c r="AB17" s="262"/>
+      <c r="AC17" s="262"/>
+      <c r="AD17" s="262"/>
+      <c r="AE17" s="262"/>
+      <c r="AF17" s="263"/>
+    </row>
+    <row r="18" spans="2:32" ht="20" customHeight="1">
       <c r="B18" s="9">
         <v>130</v>
       </c>
@@ -6207,41 +6245,41 @@
       <c r="M18" s="66">
         <v>-3.6</v>
       </c>
-      <c r="N18" s="256"/>
-      <c r="O18" s="270">
+      <c r="N18" s="299"/>
+      <c r="O18" s="216">
         <v>180</v>
       </c>
-      <c r="P18" s="274" t="s">
+      <c r="P18" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="274" t="s">
-        <v>297</v>
-      </c>
-      <c r="R18" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S18" s="273"/>
-      <c r="T18" s="282"/>
-      <c r="U18" s="291" t="s">
+      <c r="Q18" s="194" t="s">
+        <v>296</v>
+      </c>
+      <c r="R18" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S18" s="241"/>
+      <c r="T18" s="264"/>
+      <c r="U18" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="V18" s="285" t="s">
+      <c r="V18" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="W18" s="204" t="s">
+      <c r="W18" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="187"/>
-    </row>
-    <row r="19" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X18" s="259"/>
+      <c r="Y18" s="259"/>
+      <c r="Z18" s="259"/>
+      <c r="AA18" s="259"/>
+      <c r="AB18" s="259"/>
+      <c r="AC18" s="259"/>
+      <c r="AD18" s="259"/>
+      <c r="AE18" s="259"/>
+      <c r="AF18" s="260"/>
+    </row>
+    <row r="19" spans="2:32" ht="20" customHeight="1">
       <c r="B19" s="9">
         <v>120</v>
       </c>
@@ -6268,27 +6306,27 @@
       <c r="M19" s="62">
         <v>-3.3</v>
       </c>
-      <c r="N19" s="256"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="274"/>
-      <c r="Q19" s="274"/>
-      <c r="R19" s="272"/>
-      <c r="S19" s="273"/>
-      <c r="T19" s="281"/>
-      <c r="U19" s="292"/>
-      <c r="V19" s="286"/>
-      <c r="W19" s="205"/>
-      <c r="X19" s="267"/>
-      <c r="Y19" s="267"/>
-      <c r="Z19" s="267"/>
-      <c r="AA19" s="267"/>
-      <c r="AB19" s="267"/>
-      <c r="AC19" s="267"/>
-      <c r="AD19" s="267"/>
-      <c r="AE19" s="267"/>
-      <c r="AF19" s="268"/>
-    </row>
-    <row r="20" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N19" s="299"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="218"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="253"/>
+      <c r="U19" s="213"/>
+      <c r="V19" s="248"/>
+      <c r="W19" s="267"/>
+      <c r="X19" s="262"/>
+      <c r="Y19" s="262"/>
+      <c r="Z19" s="262"/>
+      <c r="AA19" s="262"/>
+      <c r="AB19" s="262"/>
+      <c r="AC19" s="262"/>
+      <c r="AD19" s="262"/>
+      <c r="AE19" s="262"/>
+      <c r="AF19" s="263"/>
+    </row>
+    <row r="20" spans="2:32" ht="20" customHeight="1">
       <c r="B20" s="9">
         <v>110</v>
       </c>
@@ -6315,41 +6353,41 @@
       <c r="M20" s="66">
         <v>-3.1</v>
       </c>
-      <c r="N20" s="256"/>
-      <c r="O20" s="270">
+      <c r="N20" s="299"/>
+      <c r="O20" s="216">
         <v>173</v>
       </c>
-      <c r="P20" s="274" t="s">
+      <c r="P20" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" s="274" t="s">
-        <v>298</v>
-      </c>
-      <c r="R20" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S20" s="273"/>
-      <c r="T20" s="282"/>
-      <c r="U20" s="291" t="s">
+      <c r="Q20" s="194" t="s">
+        <v>297</v>
+      </c>
+      <c r="R20" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S20" s="241"/>
+      <c r="T20" s="264"/>
+      <c r="U20" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="V20" s="285" t="s">
+      <c r="V20" s="247" t="s">
         <v>65</v>
       </c>
-      <c r="W20" s="204" t="s">
+      <c r="W20" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="186"/>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="187"/>
-    </row>
-    <row r="21" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X20" s="259"/>
+      <c r="Y20" s="259"/>
+      <c r="Z20" s="259"/>
+      <c r="AA20" s="259"/>
+      <c r="AB20" s="259"/>
+      <c r="AC20" s="259"/>
+      <c r="AD20" s="259"/>
+      <c r="AE20" s="259"/>
+      <c r="AF20" s="260"/>
+    </row>
+    <row r="21" spans="2:32" ht="20" customHeight="1">
       <c r="B21" s="9">
         <v>100</v>
       </c>
@@ -6376,27 +6414,27 @@
       <c r="M21" s="62">
         <v>-2.7</v>
       </c>
-      <c r="N21" s="256"/>
-      <c r="O21" s="271"/>
-      <c r="P21" s="274"/>
-      <c r="Q21" s="274"/>
-      <c r="R21" s="272"/>
-      <c r="S21" s="273"/>
-      <c r="T21" s="281"/>
-      <c r="U21" s="292"/>
-      <c r="V21" s="286"/>
-      <c r="W21" s="205"/>
-      <c r="X21" s="267"/>
-      <c r="Y21" s="267"/>
-      <c r="Z21" s="267"/>
-      <c r="AA21" s="267"/>
-      <c r="AB21" s="267"/>
-      <c r="AC21" s="267"/>
-      <c r="AD21" s="267"/>
-      <c r="AE21" s="267"/>
-      <c r="AF21" s="268"/>
-    </row>
-    <row r="22" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N21" s="299"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="218"/>
+      <c r="S21" s="241"/>
+      <c r="T21" s="253"/>
+      <c r="U21" s="213"/>
+      <c r="V21" s="248"/>
+      <c r="W21" s="267"/>
+      <c r="X21" s="262"/>
+      <c r="Y21" s="262"/>
+      <c r="Z21" s="262"/>
+      <c r="AA21" s="262"/>
+      <c r="AB21" s="262"/>
+      <c r="AC21" s="262"/>
+      <c r="AD21" s="262"/>
+      <c r="AE21" s="262"/>
+      <c r="AF21" s="263"/>
+    </row>
+    <row r="22" spans="2:32" ht="20" customHeight="1">
       <c r="B22" s="9">
         <v>90</v>
       </c>
@@ -6423,41 +6461,41 @@
       <c r="M22" s="66">
         <v>-2.4</v>
       </c>
-      <c r="N22" s="256"/>
-      <c r="O22" s="270">
+      <c r="N22" s="299"/>
+      <c r="O22" s="216">
         <v>165</v>
       </c>
-      <c r="P22" s="274" t="s">
+      <c r="P22" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="274" t="s">
-        <v>299</v>
-      </c>
-      <c r="R22" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S22" s="273"/>
-      <c r="T22" s="282"/>
-      <c r="U22" s="291" t="s">
+      <c r="Q22" s="194" t="s">
+        <v>298</v>
+      </c>
+      <c r="R22" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S22" s="241"/>
+      <c r="T22" s="264"/>
+      <c r="U22" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="V22" s="285" t="s">
+      <c r="V22" s="247" t="s">
         <v>65</v>
       </c>
-      <c r="W22" s="204" t="s">
+      <c r="W22" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="187"/>
-    </row>
-    <row r="23" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X22" s="259"/>
+      <c r="Y22" s="259"/>
+      <c r="Z22" s="259"/>
+      <c r="AA22" s="259"/>
+      <c r="AB22" s="259"/>
+      <c r="AC22" s="259"/>
+      <c r="AD22" s="259"/>
+      <c r="AE22" s="259"/>
+      <c r="AF22" s="260"/>
+    </row>
+    <row r="23" spans="2:32" ht="20" customHeight="1">
       <c r="B23" s="9">
         <v>80</v>
       </c>
@@ -6484,27 +6522,27 @@
       <c r="M23" s="62">
         <v>-2.1</v>
       </c>
-      <c r="N23" s="256"/>
-      <c r="O23" s="271"/>
-      <c r="P23" s="274"/>
-      <c r="Q23" s="274"/>
-      <c r="R23" s="272"/>
-      <c r="S23" s="273"/>
-      <c r="T23" s="281"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="286"/>
-      <c r="W23" s="205"/>
-      <c r="X23" s="267"/>
-      <c r="Y23" s="267"/>
-      <c r="Z23" s="267"/>
-      <c r="AA23" s="267"/>
-      <c r="AB23" s="267"/>
-      <c r="AC23" s="267"/>
-      <c r="AD23" s="267"/>
-      <c r="AE23" s="267"/>
-      <c r="AF23" s="268"/>
-    </row>
-    <row r="24" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N23" s="299"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="218"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="213"/>
+      <c r="V23" s="248"/>
+      <c r="W23" s="267"/>
+      <c r="X23" s="262"/>
+      <c r="Y23" s="262"/>
+      <c r="Z23" s="262"/>
+      <c r="AA23" s="262"/>
+      <c r="AB23" s="262"/>
+      <c r="AC23" s="262"/>
+      <c r="AD23" s="262"/>
+      <c r="AE23" s="262"/>
+      <c r="AF23" s="263"/>
+    </row>
+    <row r="24" spans="2:32" ht="20" customHeight="1">
       <c r="B24" s="9">
         <v>70</v>
       </c>
@@ -6533,41 +6571,41 @@
       <c r="M24" s="66">
         <v>-1.7</v>
       </c>
-      <c r="N24" s="256"/>
-      <c r="O24" s="270">
+      <c r="N24" s="299"/>
+      <c r="O24" s="216">
         <v>161</v>
       </c>
-      <c r="P24" s="274" t="s">
+      <c r="P24" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="274" t="s">
-        <v>300</v>
-      </c>
-      <c r="R24" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S24" s="273"/>
-      <c r="T24" s="282"/>
-      <c r="U24" s="291" t="s">
+      <c r="Q24" s="194" t="s">
+        <v>299</v>
+      </c>
+      <c r="R24" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S24" s="241"/>
+      <c r="T24" s="264"/>
+      <c r="U24" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="V24" s="285" t="s">
+      <c r="V24" s="247" t="s">
         <v>65</v>
       </c>
-      <c r="W24" s="204" t="s">
+      <c r="W24" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="186"/>
-      <c r="AA24" s="186"/>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="186"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="187"/>
-    </row>
-    <row r="25" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X24" s="259"/>
+      <c r="Y24" s="259"/>
+      <c r="Z24" s="259"/>
+      <c r="AA24" s="259"/>
+      <c r="AB24" s="259"/>
+      <c r="AC24" s="259"/>
+      <c r="AD24" s="259"/>
+      <c r="AE24" s="259"/>
+      <c r="AF24" s="260"/>
+    </row>
+    <row r="25" spans="2:32" ht="20" customHeight="1">
       <c r="B25" s="9">
         <v>60</v>
       </c>
@@ -6580,9 +6618,7 @@
       <c r="E25" s="4">
         <v>303</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="5"/>
       <c r="H25" s="20"/>
       <c r="I25" s="4"/>
@@ -6594,27 +6630,27 @@
       <c r="M25" s="62">
         <v>-1.3</v>
       </c>
-      <c r="N25" s="256"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="274"/>
-      <c r="Q25" s="274"/>
-      <c r="R25" s="272"/>
-      <c r="S25" s="273"/>
-      <c r="T25" s="282"/>
-      <c r="U25" s="292"/>
-      <c r="V25" s="286"/>
-      <c r="W25" s="205"/>
-      <c r="X25" s="267"/>
-      <c r="Y25" s="267"/>
-      <c r="Z25" s="267"/>
-      <c r="AA25" s="267"/>
-      <c r="AB25" s="267"/>
-      <c r="AC25" s="267"/>
-      <c r="AD25" s="267"/>
-      <c r="AE25" s="267"/>
-      <c r="AF25" s="268"/>
-    </row>
-    <row r="26" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N25" s="299"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="218"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="264"/>
+      <c r="U25" s="213"/>
+      <c r="V25" s="248"/>
+      <c r="W25" s="267"/>
+      <c r="X25" s="262"/>
+      <c r="Y25" s="262"/>
+      <c r="Z25" s="262"/>
+      <c r="AA25" s="262"/>
+      <c r="AB25" s="262"/>
+      <c r="AC25" s="262"/>
+      <c r="AD25" s="262"/>
+      <c r="AE25" s="262"/>
+      <c r="AF25" s="263"/>
+    </row>
+    <row r="26" spans="2:32" ht="20" customHeight="1">
       <c r="B26" s="9">
         <v>50</v>
       </c>
@@ -6641,41 +6677,41 @@
       <c r="M26" s="67">
         <v>-1</v>
       </c>
-      <c r="N26" s="256"/>
-      <c r="O26" s="190">
+      <c r="N26" s="299"/>
+      <c r="O26" s="236">
         <v>158</v>
       </c>
-      <c r="P26" s="229" t="s">
+      <c r="P26" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="229" t="s">
-        <v>301</v>
-      </c>
-      <c r="R26" s="198" t="s">
-        <v>310</v>
-      </c>
-      <c r="S26" s="288"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="198" t="s">
+      <c r="Q26" s="233" t="s">
+        <v>300</v>
+      </c>
+      <c r="R26" s="242" t="s">
+        <v>309</v>
+      </c>
+      <c r="S26" s="243"/>
+      <c r="T26" s="251"/>
+      <c r="U26" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V26" s="200" t="s">
+      <c r="V26" s="244" t="s">
         <v>64</v>
       </c>
-      <c r="W26" s="204" t="s">
+      <c r="W26" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="186"/>
-      <c r="AB26" s="186"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="186"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="187"/>
-    </row>
-    <row r="27" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X26" s="259"/>
+      <c r="Y26" s="259"/>
+      <c r="Z26" s="259"/>
+      <c r="AA26" s="259"/>
+      <c r="AB26" s="259"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="259"/>
+      <c r="AE26" s="259"/>
+      <c r="AF26" s="260"/>
+    </row>
+    <row r="27" spans="2:32" ht="20" customHeight="1">
       <c r="B27" s="9">
         <v>40</v>
       </c>
@@ -6702,27 +6738,27 @@
       <c r="M27" s="64">
         <v>-0.7</v>
       </c>
-      <c r="N27" s="256"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="229"/>
-      <c r="Q27" s="229"/>
-      <c r="R27" s="198"/>
-      <c r="S27" s="288"/>
-      <c r="T27" s="281"/>
-      <c r="U27" s="290"/>
-      <c r="V27" s="289"/>
-      <c r="W27" s="205"/>
-      <c r="X27" s="267"/>
-      <c r="Y27" s="267"/>
-      <c r="Z27" s="267"/>
-      <c r="AA27" s="267"/>
-      <c r="AB27" s="267"/>
-      <c r="AC27" s="267"/>
-      <c r="AD27" s="267"/>
-      <c r="AE27" s="267"/>
-      <c r="AF27" s="268"/>
-    </row>
-    <row r="28" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N27" s="299"/>
+      <c r="O27" s="240"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="242"/>
+      <c r="S27" s="243"/>
+      <c r="T27" s="253"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="246"/>
+      <c r="W27" s="267"/>
+      <c r="X27" s="262"/>
+      <c r="Y27" s="262"/>
+      <c r="Z27" s="262"/>
+      <c r="AA27" s="262"/>
+      <c r="AB27" s="262"/>
+      <c r="AC27" s="262"/>
+      <c r="AD27" s="262"/>
+      <c r="AE27" s="262"/>
+      <c r="AF27" s="263"/>
+    </row>
+    <row r="28" spans="2:32" ht="20" customHeight="1">
       <c r="B28" s="9">
         <v>30</v>
       </c>
@@ -6749,41 +6785,41 @@
       <c r="M28" s="67">
         <v>-0.4</v>
       </c>
-      <c r="N28" s="256"/>
-      <c r="O28" s="190">
+      <c r="N28" s="299"/>
+      <c r="O28" s="236">
         <v>142</v>
       </c>
-      <c r="P28" s="229" t="s">
+      <c r="P28" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="Q28" s="229" t="s">
-        <v>302</v>
-      </c>
-      <c r="R28" s="198" t="s">
-        <v>310</v>
-      </c>
-      <c r="S28" s="288"/>
-      <c r="T28" s="196"/>
-      <c r="U28" s="198" t="s">
+      <c r="Q28" s="233" t="s">
+        <v>301</v>
+      </c>
+      <c r="R28" s="242" t="s">
+        <v>309</v>
+      </c>
+      <c r="S28" s="243"/>
+      <c r="T28" s="251"/>
+      <c r="U28" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V28" s="200" t="s">
+      <c r="V28" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="W28" s="204" t="s">
+      <c r="W28" s="266" t="s">
         <v>194</v>
       </c>
-      <c r="X28" s="186"/>
-      <c r="Y28" s="186"/>
-      <c r="Z28" s="186"/>
-      <c r="AA28" s="186"/>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="187"/>
-    </row>
-    <row r="29" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X28" s="259"/>
+      <c r="Y28" s="259"/>
+      <c r="Z28" s="259"/>
+      <c r="AA28" s="259"/>
+      <c r="AB28" s="259"/>
+      <c r="AC28" s="259"/>
+      <c r="AD28" s="259"/>
+      <c r="AE28" s="259"/>
+      <c r="AF28" s="260"/>
+    </row>
+    <row r="29" spans="2:32" ht="20" customHeight="1">
       <c r="B29" s="9">
         <v>20</v>
       </c>
@@ -6810,27 +6846,27 @@
       <c r="M29" s="64">
         <v>-0.1</v>
       </c>
-      <c r="N29" s="256"/>
-      <c r="O29" s="280"/>
-      <c r="P29" s="229"/>
-      <c r="Q29" s="229"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="288"/>
-      <c r="T29" s="281"/>
-      <c r="U29" s="290"/>
-      <c r="V29" s="289"/>
-      <c r="W29" s="205"/>
-      <c r="X29" s="267"/>
-      <c r="Y29" s="267"/>
-      <c r="Z29" s="267"/>
-      <c r="AA29" s="267"/>
-      <c r="AB29" s="267"/>
-      <c r="AC29" s="267"/>
-      <c r="AD29" s="267"/>
-      <c r="AE29" s="267"/>
-      <c r="AF29" s="268"/>
-    </row>
-    <row r="30" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="N29" s="299"/>
+      <c r="O29" s="240"/>
+      <c r="P29" s="233"/>
+      <c r="Q29" s="233"/>
+      <c r="R29" s="242"/>
+      <c r="S29" s="243"/>
+      <c r="T29" s="253"/>
+      <c r="U29" s="249"/>
+      <c r="V29" s="246"/>
+      <c r="W29" s="267"/>
+      <c r="X29" s="262"/>
+      <c r="Y29" s="262"/>
+      <c r="Z29" s="262"/>
+      <c r="AA29" s="262"/>
+      <c r="AB29" s="262"/>
+      <c r="AC29" s="262"/>
+      <c r="AD29" s="262"/>
+      <c r="AE29" s="262"/>
+      <c r="AF29" s="263"/>
+    </row>
+    <row r="30" spans="2:32" ht="20" customHeight="1">
       <c r="B30" s="9">
         <v>10</v>
       </c>
@@ -6849,41 +6885,41 @@
       <c r="K30" s="10"/>
       <c r="L30" s="70"/>
       <c r="M30" s="67"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="190">
+      <c r="N30" s="299"/>
+      <c r="O30" s="236">
         <v>129</v>
       </c>
-      <c r="P30" s="274" t="s">
+      <c r="P30" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="274" t="s">
-        <v>303</v>
-      </c>
-      <c r="R30" s="272" t="s">
-        <v>310</v>
-      </c>
-      <c r="S30" s="273"/>
-      <c r="T30" s="196"/>
-      <c r="U30" s="293" t="s">
+      <c r="Q30" s="194" t="s">
+        <v>302</v>
+      </c>
+      <c r="R30" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="S30" s="241"/>
+      <c r="T30" s="251"/>
+      <c r="U30" s="254" t="s">
         <v>180</v>
       </c>
-      <c r="V30" s="295" t="s">
+      <c r="V30" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="W30" s="202" t="s">
+      <c r="W30" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="187"/>
-    </row>
-    <row r="31" spans="2:32" ht="20.100000000000001" customHeight="1">
+      <c r="X30" s="259"/>
+      <c r="Y30" s="259"/>
+      <c r="Z30" s="259"/>
+      <c r="AA30" s="259"/>
+      <c r="AB30" s="259"/>
+      <c r="AC30" s="259"/>
+      <c r="AD30" s="259"/>
+      <c r="AE30" s="259"/>
+      <c r="AF30" s="260"/>
+    </row>
+    <row r="31" spans="2:32" ht="20" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="27" t="s">
         <v>22</v>
@@ -6898,27 +6934,27 @@
       <c r="K31" s="10"/>
       <c r="L31" s="70"/>
       <c r="M31" s="64"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="280"/>
-      <c r="P31" s="229"/>
-      <c r="Q31" s="229"/>
-      <c r="R31" s="272"/>
-      <c r="S31" s="273"/>
-      <c r="T31" s="281"/>
-      <c r="U31" s="294"/>
-      <c r="V31" s="296"/>
-      <c r="W31" s="269"/>
-      <c r="X31" s="267"/>
-      <c r="Y31" s="267"/>
-      <c r="Z31" s="267"/>
-      <c r="AA31" s="267"/>
-      <c r="AB31" s="267"/>
-      <c r="AC31" s="267"/>
-      <c r="AD31" s="267"/>
-      <c r="AE31" s="267"/>
-      <c r="AF31" s="268"/>
-    </row>
-    <row r="32" spans="2:32" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="N31" s="299"/>
+      <c r="O31" s="240"/>
+      <c r="P31" s="233"/>
+      <c r="Q31" s="233"/>
+      <c r="R31" s="218"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="253"/>
+      <c r="U31" s="255"/>
+      <c r="V31" s="257"/>
+      <c r="W31" s="314"/>
+      <c r="X31" s="262"/>
+      <c r="Y31" s="262"/>
+      <c r="Z31" s="262"/>
+      <c r="AA31" s="262"/>
+      <c r="AB31" s="262"/>
+      <c r="AC31" s="262"/>
+      <c r="AD31" s="262"/>
+      <c r="AE31" s="262"/>
+      <c r="AF31" s="263"/>
+    </row>
+    <row r="32" spans="2:32" ht="20" customHeight="1" thickBot="1">
       <c r="B32" s="12"/>
       <c r="C32" s="31" t="s">
         <v>22</v>
@@ -6933,41 +6969,41 @@
       <c r="K32" s="11"/>
       <c r="L32" s="70"/>
       <c r="M32" s="67"/>
-      <c r="N32" s="256"/>
-      <c r="O32" s="190">
+      <c r="N32" s="299"/>
+      <c r="O32" s="236">
         <v>105</v>
       </c>
-      <c r="P32" s="192" t="s">
+      <c r="P32" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="Q32" s="192" t="s">
-        <v>304</v>
-      </c>
-      <c r="R32" s="194" t="s">
-        <v>310</v>
-      </c>
-      <c r="S32" s="195"/>
-      <c r="T32" s="196"/>
-      <c r="U32" s="198" t="s">
+      <c r="Q32" s="234" t="s">
+        <v>303</v>
+      </c>
+      <c r="R32" s="238" t="s">
+        <v>309</v>
+      </c>
+      <c r="S32" s="239"/>
+      <c r="T32" s="251"/>
+      <c r="U32" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V32" s="200" t="s">
+      <c r="V32" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="W32" s="202" t="s">
+      <c r="W32" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="186"/>
-      <c r="AA32" s="186"/>
-      <c r="AB32" s="186"/>
-      <c r="AC32" s="186"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="187"/>
-    </row>
-    <row r="33" spans="2:32" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+      <c r="X32" s="259"/>
+      <c r="Y32" s="259"/>
+      <c r="Z32" s="259"/>
+      <c r="AA32" s="259"/>
+      <c r="AB32" s="259"/>
+      <c r="AC32" s="259"/>
+      <c r="AD32" s="259"/>
+      <c r="AE32" s="259"/>
+      <c r="AF32" s="260"/>
+    </row>
+    <row r="33" spans="2:32" ht="20" customHeight="1" thickTop="1" thickBot="1">
       <c r="B33" s="17"/>
       <c r="C33" s="18" t="s">
         <v>22</v>
@@ -6982,299 +7018,487 @@
       <c r="K33" s="15"/>
       <c r="L33" s="72"/>
       <c r="M33" s="68"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="191"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="195"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="199"/>
-      <c r="V33" s="201"/>
-      <c r="W33" s="203"/>
-      <c r="X33" s="188"/>
-      <c r="Y33" s="188"/>
-      <c r="Z33" s="188"/>
-      <c r="AA33" s="188"/>
-      <c r="AB33" s="188"/>
-      <c r="AC33" s="188"/>
-      <c r="AD33" s="188"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="189"/>
-    </row>
-    <row r="34" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O34" s="190">
+      <c r="N33" s="300"/>
+      <c r="O33" s="237"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="238"/>
+      <c r="S33" s="239"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="250"/>
+      <c r="V33" s="245"/>
+      <c r="W33" s="313"/>
+      <c r="X33" s="310"/>
+      <c r="Y33" s="310"/>
+      <c r="Z33" s="310"/>
+      <c r="AA33" s="310"/>
+      <c r="AB33" s="310"/>
+      <c r="AC33" s="310"/>
+      <c r="AD33" s="310"/>
+      <c r="AE33" s="310"/>
+      <c r="AF33" s="311"/>
+    </row>
+    <row r="34" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O34" s="236">
         <v>98</v>
       </c>
-      <c r="P34" s="192" t="s">
+      <c r="P34" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="Q34" s="192" t="s">
+      <c r="Q34" s="234" t="s">
+        <v>304</v>
+      </c>
+      <c r="R34" s="238" t="s">
+        <v>309</v>
+      </c>
+      <c r="S34" s="239"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="242" t="s">
+        <v>180</v>
+      </c>
+      <c r="V34" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="W34" s="312" t="s">
+        <v>194</v>
+      </c>
+      <c r="X34" s="259"/>
+      <c r="Y34" s="259"/>
+      <c r="Z34" s="259"/>
+      <c r="AA34" s="259"/>
+      <c r="AB34" s="259"/>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="259"/>
+      <c r="AE34" s="259"/>
+      <c r="AF34" s="260"/>
+    </row>
+    <row r="35" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O35" s="237"/>
+      <c r="P35" s="235"/>
+      <c r="Q35" s="235"/>
+      <c r="R35" s="238"/>
+      <c r="S35" s="239"/>
+      <c r="T35" s="252"/>
+      <c r="U35" s="250"/>
+      <c r="V35" s="245"/>
+      <c r="W35" s="313"/>
+      <c r="X35" s="310"/>
+      <c r="Y35" s="310"/>
+      <c r="Z35" s="310"/>
+      <c r="AA35" s="310"/>
+      <c r="AB35" s="310"/>
+      <c r="AC35" s="310"/>
+      <c r="AD35" s="310"/>
+      <c r="AE35" s="310"/>
+      <c r="AF35" s="311"/>
+    </row>
+    <row r="36" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O36" s="236">
+        <v>80</v>
+      </c>
+      <c r="P36" s="234" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="234" t="s">
         <v>305</v>
       </c>
-      <c r="R34" s="194" t="s">
-        <v>310</v>
-      </c>
-      <c r="S34" s="195"/>
-      <c r="T34" s="196"/>
-      <c r="U34" s="198" t="s">
+      <c r="R36" s="238"/>
+      <c r="S36" s="239" t="s">
+        <v>309</v>
+      </c>
+      <c r="T36" s="251"/>
+      <c r="U36" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V34" s="200" t="s">
-        <v>65</v>
-      </c>
-      <c r="W34" s="202" t="s">
+      <c r="V36" s="244" t="s">
+        <v>64</v>
+      </c>
+      <c r="W36" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
-      <c r="AA34" s="186"/>
-      <c r="AB34" s="186"/>
-      <c r="AC34" s="186"/>
-      <c r="AD34" s="186"/>
-      <c r="AE34" s="186"/>
-      <c r="AF34" s="187"/>
-    </row>
-    <row r="35" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O35" s="191"/>
-      <c r="P35" s="193"/>
-      <c r="Q35" s="193"/>
-      <c r="R35" s="194"/>
-      <c r="S35" s="195"/>
-      <c r="T35" s="197"/>
-      <c r="U35" s="199"/>
-      <c r="V35" s="201"/>
-      <c r="W35" s="203"/>
-      <c r="X35" s="188"/>
-      <c r="Y35" s="188"/>
-      <c r="Z35" s="188"/>
-      <c r="AA35" s="188"/>
-      <c r="AB35" s="188"/>
-      <c r="AC35" s="188"/>
-      <c r="AD35" s="188"/>
-      <c r="AE35" s="188"/>
-      <c r="AF35" s="189"/>
-    </row>
-    <row r="36" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O36" s="190">
-        <v>80</v>
-      </c>
-      <c r="P36" s="192" t="s">
+      <c r="X36" s="259"/>
+      <c r="Y36" s="259"/>
+      <c r="Z36" s="259"/>
+      <c r="AA36" s="259"/>
+      <c r="AB36" s="259"/>
+      <c r="AC36" s="259"/>
+      <c r="AD36" s="259"/>
+      <c r="AE36" s="259"/>
+      <c r="AF36" s="260"/>
+    </row>
+    <row r="37" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O37" s="237"/>
+      <c r="P37" s="235"/>
+      <c r="Q37" s="235"/>
+      <c r="R37" s="238"/>
+      <c r="S37" s="239"/>
+      <c r="T37" s="252"/>
+      <c r="U37" s="250"/>
+      <c r="V37" s="245"/>
+      <c r="W37" s="313"/>
+      <c r="X37" s="310"/>
+      <c r="Y37" s="310"/>
+      <c r="Z37" s="310"/>
+      <c r="AA37" s="310"/>
+      <c r="AB37" s="310"/>
+      <c r="AC37" s="310"/>
+      <c r="AD37" s="310"/>
+      <c r="AE37" s="310"/>
+      <c r="AF37" s="311"/>
+    </row>
+    <row r="38" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O38" s="236">
+        <v>57</v>
+      </c>
+      <c r="P38" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="Q36" s="192" t="s">
+      <c r="Q38" s="234" t="s">
         <v>306</v>
       </c>
-      <c r="R36" s="194"/>
-      <c r="S36" s="195" t="s">
-        <v>310</v>
-      </c>
-      <c r="T36" s="196"/>
-      <c r="U36" s="198" t="s">
+      <c r="R38" s="238"/>
+      <c r="S38" s="239" t="s">
+        <v>309</v>
+      </c>
+      <c r="T38" s="251"/>
+      <c r="U38" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V36" s="200" t="s">
-        <v>64</v>
-      </c>
-      <c r="W36" s="202" t="s">
+      <c r="V38" s="244" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="X36" s="186"/>
-      <c r="Y36" s="186"/>
-      <c r="Z36" s="186"/>
-      <c r="AA36" s="186"/>
-      <c r="AB36" s="186"/>
-      <c r="AC36" s="186"/>
-      <c r="AD36" s="186"/>
-      <c r="AE36" s="186"/>
-      <c r="AF36" s="187"/>
-    </row>
-    <row r="37" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O37" s="191"/>
-      <c r="P37" s="193"/>
-      <c r="Q37" s="193"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="195"/>
-      <c r="T37" s="197"/>
-      <c r="U37" s="199"/>
-      <c r="V37" s="201"/>
-      <c r="W37" s="203"/>
-      <c r="X37" s="188"/>
-      <c r="Y37" s="188"/>
-      <c r="Z37" s="188"/>
-      <c r="AA37" s="188"/>
-      <c r="AB37" s="188"/>
-      <c r="AC37" s="188"/>
-      <c r="AD37" s="188"/>
-      <c r="AE37" s="188"/>
-      <c r="AF37" s="189"/>
-    </row>
-    <row r="38" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O38" s="190">
-        <v>57</v>
-      </c>
-      <c r="P38" s="192" t="s">
+      <c r="X38" s="259"/>
+      <c r="Y38" s="259"/>
+      <c r="Z38" s="259"/>
+      <c r="AA38" s="259"/>
+      <c r="AB38" s="259"/>
+      <c r="AC38" s="259"/>
+      <c r="AD38" s="259"/>
+      <c r="AE38" s="259"/>
+      <c r="AF38" s="260"/>
+    </row>
+    <row r="39" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O39" s="237"/>
+      <c r="P39" s="235"/>
+      <c r="Q39" s="235"/>
+      <c r="R39" s="238"/>
+      <c r="S39" s="239"/>
+      <c r="T39" s="252"/>
+      <c r="U39" s="250"/>
+      <c r="V39" s="245"/>
+      <c r="W39" s="313"/>
+      <c r="X39" s="310"/>
+      <c r="Y39" s="310"/>
+      <c r="Z39" s="310"/>
+      <c r="AA39" s="310"/>
+      <c r="AB39" s="310"/>
+      <c r="AC39" s="310"/>
+      <c r="AD39" s="310"/>
+      <c r="AE39" s="310"/>
+      <c r="AF39" s="311"/>
+    </row>
+    <row r="40" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O40" s="236">
+        <v>25</v>
+      </c>
+      <c r="P40" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="Q38" s="192" t="s">
+      <c r="Q40" s="234" t="s">
         <v>307</v>
       </c>
-      <c r="R38" s="194"/>
-      <c r="S38" s="195" t="s">
-        <v>310</v>
-      </c>
-      <c r="T38" s="196"/>
-      <c r="U38" s="198" t="s">
+      <c r="R40" s="238"/>
+      <c r="S40" s="239" t="s">
+        <v>309</v>
+      </c>
+      <c r="T40" s="251"/>
+      <c r="U40" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V38" s="200" t="s">
-        <v>46</v>
-      </c>
-      <c r="W38" s="202" t="s">
+      <c r="V40" s="244" t="s">
+        <v>63</v>
+      </c>
+      <c r="W40" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="X38" s="186"/>
-      <c r="Y38" s="186"/>
-      <c r="Z38" s="186"/>
-      <c r="AA38" s="186"/>
-      <c r="AB38" s="186"/>
-      <c r="AC38" s="186"/>
-      <c r="AD38" s="186"/>
-      <c r="AE38" s="186"/>
-      <c r="AF38" s="187"/>
-    </row>
-    <row r="39" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O39" s="191"/>
-      <c r="P39" s="193"/>
-      <c r="Q39" s="193"/>
-      <c r="R39" s="194"/>
-      <c r="S39" s="195"/>
-      <c r="T39" s="197"/>
-      <c r="U39" s="199"/>
-      <c r="V39" s="201"/>
-      <c r="W39" s="203"/>
-      <c r="X39" s="188"/>
-      <c r="Y39" s="188"/>
-      <c r="Z39" s="188"/>
-      <c r="AA39" s="188"/>
-      <c r="AB39" s="188"/>
-      <c r="AC39" s="188"/>
-      <c r="AD39" s="188"/>
-      <c r="AE39" s="188"/>
-      <c r="AF39" s="189"/>
-    </row>
-    <row r="40" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O40" s="190">
-        <v>25</v>
-      </c>
-      <c r="P40" s="192" t="s">
+      <c r="X40" s="259"/>
+      <c r="Y40" s="259"/>
+      <c r="Z40" s="259"/>
+      <c r="AA40" s="259"/>
+      <c r="AB40" s="259"/>
+      <c r="AC40" s="259"/>
+      <c r="AD40" s="259"/>
+      <c r="AE40" s="259"/>
+      <c r="AF40" s="260"/>
+    </row>
+    <row r="41" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O41" s="237"/>
+      <c r="P41" s="235"/>
+      <c r="Q41" s="235"/>
+      <c r="R41" s="238"/>
+      <c r="S41" s="239"/>
+      <c r="T41" s="252"/>
+      <c r="U41" s="250"/>
+      <c r="V41" s="245"/>
+      <c r="W41" s="313"/>
+      <c r="X41" s="310"/>
+      <c r="Y41" s="310"/>
+      <c r="Z41" s="310"/>
+      <c r="AA41" s="310"/>
+      <c r="AB41" s="310"/>
+      <c r="AC41" s="310"/>
+      <c r="AD41" s="310"/>
+      <c r="AE41" s="310"/>
+      <c r="AF41" s="311"/>
+    </row>
+    <row r="42" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O42" s="236">
+        <v>12</v>
+      </c>
+      <c r="P42" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="192" t="s">
+      <c r="Q42" s="234" t="s">
         <v>308</v>
       </c>
-      <c r="R40" s="194"/>
-      <c r="S40" s="195" t="s">
-        <v>310</v>
-      </c>
-      <c r="T40" s="196"/>
-      <c r="U40" s="198" t="s">
+      <c r="R42" s="238"/>
+      <c r="S42" s="239" t="s">
+        <v>309</v>
+      </c>
+      <c r="T42" s="251"/>
+      <c r="U42" s="242" t="s">
         <v>180</v>
       </c>
-      <c r="V40" s="200" t="s">
-        <v>63</v>
-      </c>
-      <c r="W40" s="202" t="s">
+      <c r="V42" s="244" t="s">
+        <v>66</v>
+      </c>
+      <c r="W42" s="312" t="s">
         <v>194</v>
       </c>
-      <c r="X40" s="186"/>
-      <c r="Y40" s="186"/>
-      <c r="Z40" s="186"/>
-      <c r="AA40" s="186"/>
-      <c r="AB40" s="186"/>
-      <c r="AC40" s="186"/>
-      <c r="AD40" s="186"/>
-      <c r="AE40" s="186"/>
-      <c r="AF40" s="187"/>
-    </row>
-    <row r="41" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O41" s="191"/>
-      <c r="P41" s="193"/>
-      <c r="Q41" s="193"/>
-      <c r="R41" s="194"/>
-      <c r="S41" s="195"/>
-      <c r="T41" s="197"/>
-      <c r="U41" s="199"/>
-      <c r="V41" s="201"/>
-      <c r="W41" s="203"/>
-      <c r="X41" s="188"/>
-      <c r="Y41" s="188"/>
-      <c r="Z41" s="188"/>
-      <c r="AA41" s="188"/>
-      <c r="AB41" s="188"/>
-      <c r="AC41" s="188"/>
-      <c r="AD41" s="188"/>
-      <c r="AE41" s="188"/>
-      <c r="AF41" s="189"/>
-    </row>
-    <row r="42" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O42" s="190">
-        <v>12</v>
-      </c>
-      <c r="P42" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q42" s="192" t="s">
-        <v>309</v>
-      </c>
-      <c r="R42" s="194"/>
-      <c r="S42" s="195" t="s">
-        <v>310</v>
-      </c>
-      <c r="T42" s="196"/>
-      <c r="U42" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="V42" s="200" t="s">
-        <v>66</v>
-      </c>
-      <c r="W42" s="202" t="s">
-        <v>194</v>
-      </c>
-      <c r="X42" s="186"/>
-      <c r="Y42" s="186"/>
-      <c r="Z42" s="186"/>
-      <c r="AA42" s="186"/>
-      <c r="AB42" s="186"/>
-      <c r="AC42" s="186"/>
-      <c r="AD42" s="186"/>
-      <c r="AE42" s="186"/>
-      <c r="AF42" s="187"/>
-    </row>
-    <row r="43" spans="2:32" ht="14.25" thickTop="1" thickBot="1">
-      <c r="O43" s="191"/>
-      <c r="P43" s="193"/>
-      <c r="Q43" s="193"/>
-      <c r="R43" s="194"/>
-      <c r="S43" s="195"/>
-      <c r="T43" s="197"/>
-      <c r="U43" s="199"/>
-      <c r="V43" s="201"/>
-      <c r="W43" s="203"/>
-      <c r="X43" s="188"/>
-      <c r="Y43" s="188"/>
-      <c r="Z43" s="188"/>
-      <c r="AA43" s="188"/>
-      <c r="AB43" s="188"/>
-      <c r="AC43" s="188"/>
-      <c r="AD43" s="188"/>
-      <c r="AE43" s="188"/>
-      <c r="AF43" s="189"/>
-    </row>
-    <row r="44" spans="2:32" ht="13.5" thickTop="1"/>
+      <c r="X42" s="259"/>
+      <c r="Y42" s="259"/>
+      <c r="Z42" s="259"/>
+      <c r="AA42" s="259"/>
+      <c r="AB42" s="259"/>
+      <c r="AC42" s="259"/>
+      <c r="AD42" s="259"/>
+      <c r="AE42" s="259"/>
+      <c r="AF42" s="260"/>
+    </row>
+    <row r="43" spans="2:32" ht="15" thickTop="1" thickBot="1">
+      <c r="O43" s="237"/>
+      <c r="P43" s="235"/>
+      <c r="Q43" s="235"/>
+      <c r="R43" s="238"/>
+      <c r="S43" s="239"/>
+      <c r="T43" s="252"/>
+      <c r="U43" s="250"/>
+      <c r="V43" s="245"/>
+      <c r="W43" s="313"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="310"/>
+      <c r="AC43" s="310"/>
+      <c r="AD43" s="310"/>
+      <c r="AE43" s="310"/>
+      <c r="AF43" s="311"/>
+    </row>
+    <row r="44" spans="2:32" ht="14" thickTop="1"/>
   </sheetData>
   <mergeCells count="212">
+    <mergeCell ref="X42:AF43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X38:AF39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:AF41"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="X34:AF35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:AF37"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="W1:AF1"/>
+    <mergeCell ref="W2:AF6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="O7:AF7"/>
+    <mergeCell ref="N7:N33"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="X8:AF9"/>
+    <mergeCell ref="X32:AF33"/>
+    <mergeCell ref="X30:AF31"/>
+    <mergeCell ref="X28:AF29"/>
+    <mergeCell ref="X26:AF27"/>
+    <mergeCell ref="X24:AF25"/>
+    <mergeCell ref="X22:AF23"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="X20:AF21"/>
+    <mergeCell ref="X18:AF19"/>
+    <mergeCell ref="X16:AF17"/>
+    <mergeCell ref="X14:AF15"/>
+    <mergeCell ref="X12:AF13"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X10:AF11"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="P28:P29"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -7299,194 +7523,6 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="X10:AF11"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="X20:AF21"/>
-    <mergeCell ref="X18:AF19"/>
-    <mergeCell ref="X16:AF17"/>
-    <mergeCell ref="X14:AF15"/>
-    <mergeCell ref="X12:AF13"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="W1:AF1"/>
-    <mergeCell ref="W2:AF6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="O7:AF7"/>
-    <mergeCell ref="N7:N33"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="X8:AF9"/>
-    <mergeCell ref="X32:AF33"/>
-    <mergeCell ref="X30:AF31"/>
-    <mergeCell ref="X28:AF29"/>
-    <mergeCell ref="X26:AF27"/>
-    <mergeCell ref="X24:AF25"/>
-    <mergeCell ref="X22:AF23"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="X34:AF35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:AF37"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X38:AF39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="U40:U41"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:AF41"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="X42:AF43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7501,7 +7537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7511,210 +7547,210 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="1" customWidth="1"/>
-    <col min="20" max="1026" width="8.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" style="1" customWidth="1"/>
+    <col min="20" max="1026" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.95" customHeight="1" thickTop="1">
-      <c r="A1" s="421" t="s">
+    <row r="1" spans="1:22" ht="16" customHeight="1" thickTop="1">
+      <c r="A1" s="350" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="423" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="352" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="423"/>
-      <c r="G1" s="423"/>
-      <c r="H1" s="423"/>
-      <c r="I1" s="424"/>
-      <c r="J1" s="425" t="s">
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="353"/>
+      <c r="J1" s="354" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="426"/>
-      <c r="L1" s="426"/>
-      <c r="M1" s="426"/>
-      <c r="N1" s="426"/>
-      <c r="O1" s="426"/>
-      <c r="P1" s="426"/>
-      <c r="Q1" s="426"/>
-      <c r="R1" s="427"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
+      <c r="Q1" s="355"/>
+      <c r="R1" s="356"/>
       <c r="S1" s="23"/>
     </row>
     <row r="2" spans="1:22" ht="27" customHeight="1">
-      <c r="A2" s="405" t="s">
+      <c r="A2" s="357" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="428"/>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="429" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="429"/>
-      <c r="G2" s="429"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="430"/>
-      <c r="J2" s="431"/>
-      <c r="K2" s="432"/>
-      <c r="L2" s="432"/>
-      <c r="M2" s="432"/>
-      <c r="N2" s="432"/>
-      <c r="O2" s="432"/>
-      <c r="P2" s="432"/>
-      <c r="Q2" s="432"/>
-      <c r="R2" s="433"/>
+      <c r="B2" s="358"/>
+      <c r="C2" s="358"/>
+      <c r="D2" s="358"/>
+      <c r="E2" s="359" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="361"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="362"/>
+      <c r="N2" s="362"/>
+      <c r="O2" s="362"/>
+      <c r="P2" s="362"/>
+      <c r="Q2" s="362"/>
+      <c r="R2" s="363"/>
       <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="416" t="s">
+      <c r="A3" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="417"/>
-      <c r="C3" s="417"/>
-      <c r="D3" s="417"/>
-      <c r="E3" s="434" t="s">
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="364" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="434"/>
-      <c r="G3" s="434"/>
-      <c r="H3" s="434"/>
-      <c r="I3" s="435"/>
-      <c r="J3" s="431"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="432"/>
-      <c r="M3" s="432"/>
-      <c r="N3" s="432"/>
-      <c r="O3" s="432"/>
-      <c r="P3" s="432"/>
-      <c r="Q3" s="432"/>
-      <c r="R3" s="433"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="365"/>
+      <c r="J3" s="361"/>
+      <c r="K3" s="362"/>
+      <c r="L3" s="362"/>
+      <c r="M3" s="362"/>
+      <c r="N3" s="362"/>
+      <c r="O3" s="362"/>
+      <c r="P3" s="362"/>
+      <c r="Q3" s="362"/>
+      <c r="R3" s="363"/>
       <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:22" ht="27" customHeight="1">
-      <c r="A4" s="405" t="s">
+      <c r="A4" s="357" t="s">
         <v>290</v>
       </c>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="428"/>
-      <c r="E4" s="436" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" s="436"/>
-      <c r="G4" s="436"/>
-      <c r="H4" s="436"/>
-      <c r="I4" s="437"/>
-      <c r="J4" s="431"/>
-      <c r="K4" s="432"/>
-      <c r="L4" s="432"/>
-      <c r="M4" s="432"/>
-      <c r="N4" s="432"/>
-      <c r="O4" s="432"/>
-      <c r="P4" s="432"/>
-      <c r="Q4" s="432"/>
-      <c r="R4" s="433"/>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="366" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="361"/>
+      <c r="K4" s="362"/>
+      <c r="L4" s="362"/>
+      <c r="M4" s="362"/>
+      <c r="N4" s="362"/>
+      <c r="O4" s="362"/>
+      <c r="P4" s="362"/>
+      <c r="Q4" s="362"/>
+      <c r="R4" s="363"/>
       <c r="S4" s="23"/>
       <c r="V4" s="73"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1">
-      <c r="A5" s="416" t="s">
+      <c r="A5" s="344" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="417"/>
-      <c r="C5" s="417"/>
-      <c r="D5" s="417"/>
-      <c r="E5" s="418" t="s">
+      <c r="B5" s="345"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="418"/>
-      <c r="G5" s="418"/>
-      <c r="H5" s="418"/>
-      <c r="I5" s="419"/>
-      <c r="J5" s="420" t="s">
+      <c r="F5" s="346"/>
+      <c r="G5" s="346"/>
+      <c r="H5" s="346"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="348" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="447" t="s">
+      <c r="K5" s="340" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="448" t="s">
+      <c r="L5" s="342" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="438" t="s">
+      <c r="M5" s="368" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="439"/>
-      <c r="O5" s="438" t="s">
+      <c r="N5" s="369"/>
+      <c r="O5" s="368" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="439"/>
-      <c r="Q5" s="375" t="s">
+      <c r="P5" s="369"/>
+      <c r="Q5" s="372" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="442"/>
+      <c r="R5" s="373"/>
       <c r="S5" s="23"/>
     </row>
     <row r="6" spans="1:22" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="405"/>
-      <c r="B6" s="406"/>
-      <c r="C6" s="406"/>
-      <c r="D6" s="406"/>
-      <c r="E6" s="407">
+      <c r="A6" s="357"/>
+      <c r="B6" s="379"/>
+      <c r="C6" s="379"/>
+      <c r="D6" s="379"/>
+      <c r="E6" s="380">
         <v>43549</v>
       </c>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="408"/>
-      <c r="I6" s="409"/>
-      <c r="J6" s="382"/>
-      <c r="K6" s="392"/>
-      <c r="L6" s="449"/>
-      <c r="M6" s="440"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="440"/>
-      <c r="P6" s="441"/>
-      <c r="Q6" s="443"/>
-      <c r="R6" s="444"/>
+      <c r="F6" s="381"/>
+      <c r="G6" s="381"/>
+      <c r="H6" s="381"/>
+      <c r="I6" s="382"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="341"/>
+      <c r="L6" s="343"/>
+      <c r="M6" s="370"/>
+      <c r="N6" s="371"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="371"/>
+      <c r="Q6" s="374"/>
+      <c r="R6" s="375"/>
       <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="1:22" ht="32.1" customHeight="1">
-      <c r="A7" s="402" t="s">
+    <row r="7" spans="1:22" ht="32" customHeight="1">
+      <c r="A7" s="376" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="378" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="404"/>
+      <c r="C7" s="378"/>
       <c r="D7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="404" t="s">
+      <c r="E7" s="378" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="404"/>
-      <c r="G7" s="404"/>
-      <c r="H7" s="404"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
       <c r="I7" s="36" t="s">
         <v>55</v>
       </c>
@@ -7727,33 +7763,33 @@
       <c r="L7" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="398" t="s">
+      <c r="M7" s="336" t="s">
         <v>280</v>
       </c>
-      <c r="N7" s="445"/>
-      <c r="O7" s="398" t="s">
+      <c r="N7" s="337"/>
+      <c r="O7" s="336" t="s">
         <v>281</v>
       </c>
-      <c r="P7" s="445"/>
-      <c r="Q7" s="389"/>
-      <c r="R7" s="446"/>
+      <c r="P7" s="337"/>
+      <c r="Q7" s="338"/>
+      <c r="R7" s="339"/>
       <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="1:22" ht="32.1" customHeight="1">
-      <c r="A8" s="402"/>
-      <c r="B8" s="412" t="s">
+    <row r="8" spans="1:22" ht="32" customHeight="1">
+      <c r="A8" s="376"/>
+      <c r="B8" s="385" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="413"/>
+      <c r="C8" s="386"/>
       <c r="D8" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="400" t="s">
+      <c r="E8" s="389" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="400"/>
-      <c r="G8" s="400"/>
-      <c r="H8" s="400"/>
+      <c r="F8" s="389"/>
+      <c r="G8" s="389"/>
+      <c r="H8" s="389"/>
       <c r="I8" s="37" t="s">
         <v>55</v>
       </c>
@@ -7766,35 +7802,35 @@
       <c r="L8" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="391" t="s">
+      <c r="M8" s="395" t="s">
         <v>210</v>
       </c>
-      <c r="N8" s="392"/>
-      <c r="O8" s="391" t="s">
+      <c r="N8" s="341"/>
+      <c r="O8" s="395" t="s">
         <v>212</v>
       </c>
-      <c r="P8" s="392"/>
-      <c r="Q8" s="393" t="s">
+      <c r="P8" s="341"/>
+      <c r="Q8" s="396" t="s">
         <v>213</v>
       </c>
-      <c r="R8" s="394"/>
+      <c r="R8" s="397"/>
       <c r="S8" s="23"/>
     </row>
-    <row r="9" spans="1:22" ht="32.1" customHeight="1">
-      <c r="A9" s="402"/>
-      <c r="B9" s="414" t="s">
+    <row r="9" spans="1:22" ht="32" customHeight="1">
+      <c r="A9" s="376"/>
+      <c r="B9" s="387" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="415"/>
+      <c r="C9" s="388"/>
       <c r="D9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="401" t="s">
+      <c r="E9" s="390" t="s">
         <v>260</v>
       </c>
-      <c r="F9" s="400"/>
-      <c r="G9" s="400"/>
-      <c r="H9" s="400"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="389"/>
       <c r="I9" s="37" t="s">
         <v>55</v>
       </c>
@@ -7807,152 +7843,152 @@
       <c r="L9" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="392" t="s">
+      <c r="M9" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="392"/>
-      <c r="O9" s="392" t="s">
+      <c r="N9" s="341"/>
+      <c r="O9" s="341" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="392"/>
-      <c r="Q9" s="393" t="s">
+      <c r="P9" s="341"/>
+      <c r="Q9" s="396" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="394"/>
-    </row>
-    <row r="10" spans="1:22" ht="32.1" customHeight="1">
-      <c r="A10" s="402"/>
-      <c r="B10" s="400" t="s">
+      <c r="R9" s="397"/>
+    </row>
+    <row r="10" spans="1:22" ht="32" customHeight="1">
+      <c r="A10" s="376"/>
+      <c r="B10" s="389" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="400"/>
+      <c r="C10" s="389"/>
       <c r="D10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="400" t="s">
+      <c r="E10" s="389" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="400"/>
-      <c r="G10" s="400"/>
-      <c r="H10" s="400"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="389"/>
       <c r="I10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="382" t="s">
+      <c r="J10" s="349" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="383"/>
+      <c r="K10" s="393"/>
       <c r="L10" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="392" t="s">
+      <c r="M10" s="341" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="392"/>
-      <c r="O10" s="392" t="s">
+      <c r="N10" s="341"/>
+      <c r="O10" s="341" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="392"/>
-      <c r="Q10" s="395"/>
-      <c r="R10" s="396"/>
-    </row>
-    <row r="11" spans="1:22" ht="32.1" customHeight="1">
-      <c r="A11" s="402"/>
-      <c r="B11" s="412" t="s">
+      <c r="P10" s="341"/>
+      <c r="Q10" s="398"/>
+      <c r="R10" s="399"/>
+    </row>
+    <row r="11" spans="1:22" ht="32" customHeight="1">
+      <c r="A11" s="376"/>
+      <c r="B11" s="385" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="413"/>
+      <c r="C11" s="386"/>
       <c r="D11" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="401" t="s">
+      <c r="E11" s="390" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="400"/>
-      <c r="G11" s="400"/>
-      <c r="H11" s="400"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
       <c r="I11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="382" t="s">
+      <c r="J11" s="349" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="383"/>
+      <c r="K11" s="393"/>
       <c r="L11" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="392" t="s">
+      <c r="M11" s="341" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="392"/>
-      <c r="O11" s="392" t="s">
+      <c r="N11" s="341"/>
+      <c r="O11" s="341" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="392"/>
-      <c r="Q11" s="395"/>
-      <c r="R11" s="396"/>
-    </row>
-    <row r="12" spans="1:22" ht="32.1" customHeight="1">
-      <c r="A12" s="402"/>
-      <c r="B12" s="412" t="s">
+      <c r="P11" s="341"/>
+      <c r="Q11" s="398"/>
+      <c r="R11" s="399"/>
+    </row>
+    <row r="12" spans="1:22" ht="32" customHeight="1">
+      <c r="A12" s="376"/>
+      <c r="B12" s="385" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="413"/>
+      <c r="C12" s="386"/>
       <c r="D12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="401" t="s">
+      <c r="E12" s="390" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="401"/>
-      <c r="G12" s="401"/>
-      <c r="H12" s="401"/>
+      <c r="F12" s="390"/>
+      <c r="G12" s="390"/>
+      <c r="H12" s="390"/>
       <c r="I12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="397" t="s">
+      <c r="J12" s="391" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="382"/>
+      <c r="K12" s="349"/>
       <c r="L12" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="398" t="s">
+      <c r="M12" s="336" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="399"/>
-      <c r="O12" s="398" t="s">
+      <c r="N12" s="392"/>
+      <c r="O12" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="399"/>
-      <c r="Q12" s="389" t="s">
+      <c r="P12" s="392"/>
+      <c r="Q12" s="338" t="s">
         <v>79</v>
       </c>
-      <c r="R12" s="390"/>
-    </row>
-    <row r="13" spans="1:22" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A13" s="403"/>
-      <c r="B13" s="410" t="s">
+      <c r="R12" s="394"/>
+    </row>
+    <row r="13" spans="1:22" ht="32" customHeight="1" thickBot="1">
+      <c r="A13" s="377"/>
+      <c r="B13" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="410"/>
+      <c r="C13" s="383"/>
       <c r="D13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="411" t="s">
+      <c r="E13" s="384" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="410"/>
-      <c r="G13" s="410"/>
-      <c r="H13" s="410"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="383"/>
+      <c r="H13" s="383"/>
       <c r="I13" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="382" t="s">
+      <c r="J13" s="349" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="383"/>
-      <c r="L13" s="383"/>
+      <c r="K13" s="393"/>
+      <c r="L13" s="393"/>
       <c r="M13" s="97">
         <v>5</v>
       </c>
@@ -7969,81 +8005,81 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="36" customHeight="1" thickBot="1">
-      <c r="A14" s="336"/>
-      <c r="B14" s="355" t="s">
+      <c r="A14" s="412"/>
+      <c r="B14" s="431" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="356"/>
-      <c r="D14" s="339" t="s">
+      <c r="C14" s="432"/>
+      <c r="D14" s="415" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="340"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="340"/>
-      <c r="H14" s="340"/>
-      <c r="I14" s="341"/>
-      <c r="J14" s="384" t="s">
+      <c r="E14" s="416"/>
+      <c r="F14" s="416"/>
+      <c r="G14" s="416"/>
+      <c r="H14" s="416"/>
+      <c r="I14" s="417"/>
+      <c r="J14" s="407" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="385"/>
+      <c r="K14" s="408"/>
       <c r="L14" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="386" t="s">
+      <c r="M14" s="409" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="386"/>
-      <c r="O14" s="386" t="s">
+      <c r="N14" s="409"/>
+      <c r="O14" s="409" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="386"/>
-      <c r="Q14" s="387" t="s">
+      <c r="P14" s="409"/>
+      <c r="Q14" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="R14" s="388"/>
+      <c r="R14" s="411"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="1:22" ht="29.25" thickTop="1">
-      <c r="A15" s="337"/>
+    <row r="15" spans="1:22" ht="31" thickTop="1">
+      <c r="A15" s="413"/>
       <c r="B15" s="94"/>
       <c r="C15" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="342"/>
-      <c r="E15" s="343"/>
-      <c r="F15" s="343"/>
-      <c r="G15" s="343"/>
-      <c r="H15" s="343"/>
-      <c r="I15" s="344"/>
-      <c r="J15" s="380"/>
-      <c r="K15" s="381"/>
+      <c r="D15" s="418"/>
+      <c r="E15" s="419"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="419"/>
+      <c r="H15" s="419"/>
+      <c r="I15" s="420"/>
+      <c r="J15" s="405"/>
+      <c r="K15" s="406"/>
       <c r="L15" s="113"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="375"/>
-      <c r="O15" s="376"/>
-      <c r="P15" s="377"/>
-      <c r="Q15" s="378"/>
-      <c r="R15" s="379"/>
+      <c r="M15" s="400"/>
+      <c r="N15" s="372"/>
+      <c r="O15" s="401"/>
+      <c r="P15" s="402"/>
+      <c r="Q15" s="403"/>
+      <c r="R15" s="404"/>
       <c r="S15" s="23"/>
     </row>
-    <row r="16" spans="1:22" ht="22.35" customHeight="1">
-      <c r="A16" s="337"/>
+    <row r="16" spans="1:22" ht="22.25" customHeight="1">
+      <c r="A16" s="413"/>
       <c r="B16" s="42">
         <v>1</v>
       </c>
       <c r="C16" s="92"/>
-      <c r="D16" s="357"/>
-      <c r="E16" s="358"/>
-      <c r="F16" s="370" t="s">
+      <c r="D16" s="433"/>
+      <c r="E16" s="434"/>
+      <c r="F16" s="446" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="372" t="s">
+      <c r="G16" s="448" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="345" t="s">
+      <c r="H16" s="421" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="346"/>
+      <c r="I16" s="422"/>
       <c r="J16" s="99"/>
       <c r="K16" s="112"/>
       <c r="L16" s="89"/>
@@ -8055,18 +8091,18 @@
       <c r="R16" s="89"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:19" ht="22.35" customHeight="1">
-      <c r="A17" s="337"/>
+    <row r="17" spans="1:19" ht="22.25" customHeight="1">
+      <c r="A17" s="413"/>
       <c r="B17" s="95">
         <v>2</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="359"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="371"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="348"/>
+      <c r="D17" s="435"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="449"/>
+      <c r="H17" s="423"/>
+      <c r="I17" s="424"/>
       <c r="J17" s="99"/>
       <c r="K17" s="39"/>
       <c r="L17" s="41"/>
@@ -8078,20 +8114,20 @@
       <c r="R17" s="90"/>
       <c r="S17" s="23"/>
     </row>
-    <row r="18" spans="1:19" ht="22.35" customHeight="1">
-      <c r="A18" s="337"/>
+    <row r="18" spans="1:19" ht="22.25" customHeight="1">
+      <c r="A18" s="413"/>
       <c r="B18" s="42">
         <v>3</v>
       </c>
       <c r="C18" s="92"/>
-      <c r="D18" s="361" t="s">
+      <c r="D18" s="437" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="362"/>
+      <c r="E18" s="438"/>
       <c r="F18" s="79"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="349"/>
-      <c r="I18" s="350"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="426"/>
       <c r="J18" s="99"/>
       <c r="K18" s="39"/>
       <c r="L18" s="41"/>
@@ -8104,19 +8140,19 @@
       <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" ht="24" customHeight="1">
-      <c r="A19" s="337"/>
+      <c r="A19" s="413"/>
       <c r="B19" s="42">
         <v>4</v>
       </c>
       <c r="C19" s="93"/>
-      <c r="D19" s="363" t="s">
+      <c r="D19" s="439" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="364"/>
+      <c r="E19" s="440"/>
       <c r="F19" s="49"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="351"/>
-      <c r="I19" s="352"/>
+      <c r="H19" s="427"/>
+      <c r="I19" s="428"/>
       <c r="J19" s="99"/>
       <c r="K19" s="76"/>
       <c r="L19" s="83"/>
@@ -8129,19 +8165,19 @@
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="24" customHeight="1">
-      <c r="A20" s="337"/>
+      <c r="A20" s="413"/>
       <c r="B20" s="42">
         <v>5</v>
       </c>
       <c r="C20" s="92"/>
-      <c r="D20" s="365" t="s">
+      <c r="D20" s="441" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="366"/>
+      <c r="E20" s="442"/>
       <c r="F20" s="75"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="351"/>
-      <c r="I20" s="352"/>
+      <c r="H20" s="427"/>
+      <c r="I20" s="428"/>
       <c r="J20" s="100"/>
       <c r="K20" s="77"/>
       <c r="L20" s="81"/>
@@ -8154,23 +8190,23 @@
       <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A21" s="337"/>
+      <c r="A21" s="413"/>
       <c r="B21" s="42">
         <v>6</v>
       </c>
       <c r="C21" s="92"/>
-      <c r="D21" s="367" t="s">
+      <c r="D21" s="443" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="368"/>
-      <c r="F21" s="369"/>
+      <c r="E21" s="444"/>
+      <c r="F21" s="445"/>
       <c r="G21" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="353" t="s">
+      <c r="H21" s="429" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="354"/>
+      <c r="I21" s="430"/>
       <c r="J21" s="99"/>
       <c r="K21" s="43"/>
       <c r="L21"/>
@@ -8183,7 +8219,7 @@
       <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1" thickTop="1">
-      <c r="A22" s="337"/>
+      <c r="A22" s="413"/>
       <c r="B22" s="42">
         <v>7</v>
       </c>
@@ -8206,7 +8242,7 @@
       <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" ht="24" customHeight="1">
-      <c r="A23" s="337"/>
+      <c r="A23" s="413"/>
       <c r="B23" s="42">
         <v>8</v>
       </c>
@@ -8229,7 +8265,7 @@
       <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A24" s="338"/>
+      <c r="A24" s="414"/>
       <c r="B24" s="110">
         <v>9</v>
       </c>
@@ -8271,7 +8307,7 @@
       <c r="R25" s="81"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:19" ht="15">
+    <row r="26" spans="1:19" ht="14">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -8349,11 +8385,65 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:J6"/>
@@ -8370,65 +8460,11 @@
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8444,7 +8480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8454,275 +8490,275 @@
       <selection activeCell="B11" sqref="B11:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="124" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="124" customWidth="1"/>
     <col min="2" max="2" width="14" style="124" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="124" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="124" customWidth="1"/>
-    <col min="5" max="5" width="0.85546875" style="124" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="124" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="124" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="124" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="124" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" style="124" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="124" customWidth="1"/>
-    <col min="12" max="16384" width="10.85546875" style="124"/>
+    <col min="3" max="3" width="11.83203125" style="124" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="124" customWidth="1"/>
+    <col min="5" max="5" width="0.83203125" style="124" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="124" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="124" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="124" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="124" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" style="124" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="124" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="124"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="459" t="s">
+      <c r="A1" s="454" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="459"/>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-    </row>
-    <row r="2" spans="1:11" ht="8.1" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A3" s="471" t="s">
+      <c r="B1" s="454"/>
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+    </row>
+    <row r="2" spans="1:11" ht="8" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:11" ht="19" customHeight="1">
+      <c r="A3" s="468" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="472"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="472"/>
-      <c r="F3" s="472"/>
-      <c r="G3" s="472"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="472"/>
-      <c r="J3" s="472"/>
-      <c r="K3" s="473"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.95" customHeight="1">
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="469"/>
+      <c r="K3" s="470"/>
+    </row>
+    <row r="4" spans="1:11" ht="19" customHeight="1">
       <c r="A4" s="125">
         <v>1</v>
       </c>
-      <c r="B4" s="452" t="s">
+      <c r="B4" s="462" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="452"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="452"/>
-      <c r="F4" s="452"/>
-      <c r="G4" s="452"/>
-      <c r="H4" s="452"/>
-      <c r="I4" s="452"/>
-      <c r="J4" s="452"/>
-      <c r="K4" s="453"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="462"/>
+      <c r="F4" s="462"/>
+      <c r="G4" s="462"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
+      <c r="J4" s="462"/>
+      <c r="K4" s="463"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" customHeight="1">
       <c r="A5" s="167">
         <v>2</v>
       </c>
-      <c r="B5" s="450" t="s">
+      <c r="B5" s="464" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="450"/>
-      <c r="D5" s="450"/>
-      <c r="E5" s="450"/>
-      <c r="F5" s="450"/>
-      <c r="G5" s="450"/>
-      <c r="H5" s="450"/>
-      <c r="I5" s="450"/>
-      <c r="J5" s="450"/>
-      <c r="K5" s="451"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C5" s="464"/>
+      <c r="D5" s="464"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="464"/>
+      <c r="G5" s="464"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="464"/>
+      <c r="J5" s="464"/>
+      <c r="K5" s="465"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" customHeight="1">
       <c r="A6" s="125">
         <v>3</v>
       </c>
-      <c r="B6" s="452" t="s">
+      <c r="B6" s="462" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="452"/>
-      <c r="D6" s="452"/>
-      <c r="E6" s="452"/>
-      <c r="F6" s="452"/>
-      <c r="G6" s="452"/>
-      <c r="H6" s="452"/>
-      <c r="I6" s="452"/>
-      <c r="J6" s="452"/>
-      <c r="K6" s="453"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C6" s="462"/>
+      <c r="D6" s="462"/>
+      <c r="E6" s="462"/>
+      <c r="F6" s="462"/>
+      <c r="G6" s="462"/>
+      <c r="H6" s="462"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="462"/>
+      <c r="K6" s="463"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" customHeight="1">
       <c r="A7" s="167">
         <v>4</v>
       </c>
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="464" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="450"/>
-      <c r="D7" s="450"/>
-      <c r="E7" s="450"/>
-      <c r="F7" s="450"/>
-      <c r="G7" s="450"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="450"/>
-      <c r="J7" s="450"/>
-      <c r="K7" s="451"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C7" s="464"/>
+      <c r="D7" s="464"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="464"/>
+      <c r="G7" s="464"/>
+      <c r="H7" s="464"/>
+      <c r="I7" s="464"/>
+      <c r="J7" s="464"/>
+      <c r="K7" s="465"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" customHeight="1">
       <c r="A8" s="125">
         <v>5</v>
       </c>
-      <c r="B8" s="452" t="s">
+      <c r="B8" s="462" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="452"/>
-      <c r="D8" s="452"/>
-      <c r="E8" s="452"/>
-      <c r="F8" s="452"/>
-      <c r="G8" s="452"/>
-      <c r="H8" s="452"/>
-      <c r="I8" s="452"/>
-      <c r="J8" s="452"/>
-      <c r="K8" s="453"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="462"/>
+      <c r="G8" s="462"/>
+      <c r="H8" s="462"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="462"/>
+      <c r="K8" s="463"/>
+    </row>
+    <row r="9" spans="1:11" ht="19" customHeight="1">
       <c r="A9" s="167">
         <v>6</v>
       </c>
-      <c r="B9" s="450" t="s">
+      <c r="B9" s="464" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="450"/>
-      <c r="D9" s="450"/>
-      <c r="E9" s="450"/>
-      <c r="F9" s="450"/>
-      <c r="G9" s="450"/>
-      <c r="H9" s="450"/>
-      <c r="I9" s="450"/>
-      <c r="J9" s="450"/>
-      <c r="K9" s="451"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C9" s="464"/>
+      <c r="D9" s="464"/>
+      <c r="E9" s="464"/>
+      <c r="F9" s="464"/>
+      <c r="G9" s="464"/>
+      <c r="H9" s="464"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="464"/>
+      <c r="K9" s="465"/>
+    </row>
+    <row r="10" spans="1:11" ht="19" customHeight="1">
       <c r="A10" s="125">
         <v>7</v>
       </c>
-      <c r="B10" s="452" t="s">
+      <c r="B10" s="462" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="452"/>
-      <c r="D10" s="452"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="452"/>
-      <c r="G10" s="452"/>
-      <c r="H10" s="452"/>
-      <c r="I10" s="452"/>
-      <c r="J10" s="452"/>
-      <c r="K10" s="453"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C10" s="462"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="463"/>
+    </row>
+    <row r="11" spans="1:11" ht="19" customHeight="1">
       <c r="A11" s="167">
         <v>8</v>
       </c>
-      <c r="B11" s="450" t="s">
+      <c r="B11" s="464" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="450"/>
-      <c r="D11" s="450"/>
-      <c r="E11" s="450"/>
-      <c r="F11" s="450"/>
-      <c r="G11" s="450"/>
-      <c r="H11" s="450"/>
-      <c r="I11" s="450"/>
-      <c r="J11" s="450"/>
-      <c r="K11" s="451"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C11" s="464"/>
+      <c r="D11" s="464"/>
+      <c r="E11" s="464"/>
+      <c r="F11" s="464"/>
+      <c r="G11" s="464"/>
+      <c r="H11" s="464"/>
+      <c r="I11" s="464"/>
+      <c r="J11" s="464"/>
+      <c r="K11" s="465"/>
+    </row>
+    <row r="12" spans="1:11" ht="19" customHeight="1">
       <c r="A12" s="125">
         <v>9</v>
       </c>
-      <c r="B12" s="474" t="s">
+      <c r="B12" s="471" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="474"/>
-      <c r="D12" s="474"/>
-      <c r="E12" s="474"/>
-      <c r="F12" s="474"/>
-      <c r="G12" s="474"/>
-      <c r="H12" s="474"/>
-      <c r="I12" s="474"/>
-      <c r="J12" s="474"/>
-      <c r="K12" s="475"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C12" s="471"/>
+      <c r="D12" s="471"/>
+      <c r="E12" s="471"/>
+      <c r="F12" s="471"/>
+      <c r="G12" s="471"/>
+      <c r="H12" s="471"/>
+      <c r="I12" s="471"/>
+      <c r="J12" s="471"/>
+      <c r="K12" s="472"/>
+    </row>
+    <row r="13" spans="1:11" ht="19" customHeight="1">
       <c r="A13" s="167">
         <v>10</v>
       </c>
-      <c r="B13" s="450" t="s">
+      <c r="B13" s="464" t="s">
         <v>236</v>
       </c>
-      <c r="C13" s="450"/>
-      <c r="D13" s="450"/>
-      <c r="E13" s="450"/>
-      <c r="F13" s="450"/>
-      <c r="G13" s="450"/>
-      <c r="H13" s="450"/>
-      <c r="I13" s="450"/>
-      <c r="J13" s="450"/>
-      <c r="K13" s="451"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C13" s="464"/>
+      <c r="D13" s="464"/>
+      <c r="E13" s="464"/>
+      <c r="F13" s="464"/>
+      <c r="G13" s="464"/>
+      <c r="H13" s="464"/>
+      <c r="I13" s="464"/>
+      <c r="J13" s="464"/>
+      <c r="K13" s="465"/>
+    </row>
+    <row r="14" spans="1:11" ht="19" customHeight="1">
       <c r="A14" s="126">
         <v>11</v>
       </c>
-      <c r="B14" s="452" t="s">
+      <c r="B14" s="462" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="452"/>
-      <c r="D14" s="452"/>
-      <c r="E14" s="452"/>
-      <c r="F14" s="452"/>
-      <c r="G14" s="452"/>
-      <c r="H14" s="452"/>
-      <c r="I14" s="452"/>
-      <c r="J14" s="452"/>
-      <c r="K14" s="453"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.95" customHeight="1">
+      <c r="C14" s="462"/>
+      <c r="D14" s="462"/>
+      <c r="E14" s="462"/>
+      <c r="F14" s="462"/>
+      <c r="G14" s="462"/>
+      <c r="H14" s="462"/>
+      <c r="I14" s="462"/>
+      <c r="J14" s="462"/>
+      <c r="K14" s="463"/>
+    </row>
+    <row r="15" spans="1:11" ht="19" customHeight="1">
       <c r="A15" s="167">
         <v>12</v>
       </c>
-      <c r="B15" s="450" t="s">
+      <c r="B15" s="464" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="450"/>
-      <c r="D15" s="450"/>
-      <c r="E15" s="450"/>
-      <c r="F15" s="450"/>
-      <c r="G15" s="450"/>
-      <c r="H15" s="450"/>
-      <c r="I15" s="450"/>
-      <c r="J15" s="450"/>
-      <c r="K15" s="451"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.95" customHeight="1" thickBot="1">
+      <c r="C15" s="464"/>
+      <c r="D15" s="464"/>
+      <c r="E15" s="464"/>
+      <c r="F15" s="464"/>
+      <c r="G15" s="464"/>
+      <c r="H15" s="464"/>
+      <c r="I15" s="464"/>
+      <c r="J15" s="464"/>
+      <c r="K15" s="465"/>
+    </row>
+    <row r="16" spans="1:11" ht="19" customHeight="1" thickBot="1">
       <c r="A16" s="168">
         <v>13</v>
       </c>
-      <c r="B16" s="454" t="s">
+      <c r="B16" s="473" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="454"/>
-      <c r="D16" s="454"/>
-      <c r="E16" s="454"/>
-      <c r="F16" s="454"/>
-      <c r="G16" s="454"/>
-      <c r="H16" s="454"/>
-      <c r="I16" s="454"/>
-      <c r="J16" s="454"/>
-      <c r="K16" s="455"/>
-    </row>
-    <row r="17" spans="1:11" ht="6.95" customHeight="1" thickBot="1">
+      <c r="C16" s="473"/>
+      <c r="D16" s="473"/>
+      <c r="E16" s="473"/>
+      <c r="F16" s="473"/>
+      <c r="G16" s="473"/>
+      <c r="H16" s="473"/>
+      <c r="I16" s="473"/>
+      <c r="J16" s="473"/>
+      <c r="K16" s="474"/>
+    </row>
+    <row r="17" spans="1:11" ht="7" customHeight="1" thickBot="1">
       <c r="A17" s="127"/>
       <c r="B17" s="128"/>
       <c r="C17" s="128"/>
@@ -8734,29 +8770,29 @@
       <c r="I17" s="128"/>
       <c r="J17" s="128"/>
     </row>
-    <row r="18" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A18" s="460" t="s">
+    <row r="18" spans="1:11" ht="19" customHeight="1">
+      <c r="A18" s="455" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="461"/>
-      <c r="C18" s="461"/>
-      <c r="D18" s="462"/>
+      <c r="B18" s="456"/>
+      <c r="C18" s="456"/>
+      <c r="D18" s="457"/>
       <c r="E18" s="127"/>
-      <c r="F18" s="469" t="s">
+      <c r="F18" s="466" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="470"/>
-      <c r="I18" s="456" t="s">
+      <c r="G18" s="467"/>
+      <c r="I18" s="475" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="457"/>
-      <c r="K18" s="458"/>
-    </row>
-    <row r="19" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A19" s="463" t="s">
+      <c r="J18" s="476"/>
+      <c r="K18" s="477"/>
+    </row>
+    <row r="19" spans="1:11" ht="22" customHeight="1">
+      <c r="A19" s="458" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="464"/>
+      <c r="B19" s="459"/>
       <c r="C19" s="129" t="s">
         <v>217</v>
       </c>
@@ -8780,11 +8816,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A20" s="465" t="s">
+    <row r="20" spans="1:11" ht="22" customHeight="1">
+      <c r="A20" s="450" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="466"/>
+      <c r="B20" s="451"/>
       <c r="C20" s="133" t="s">
         <v>179</v>
       </c>
@@ -8808,11 +8844,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A21" s="467" t="s">
+    <row r="21" spans="1:11" ht="32" customHeight="1">
+      <c r="A21" s="460" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="468"/>
+      <c r="B21" s="461"/>
       <c r="C21" s="133" t="s">
         <v>185</v>
       </c>
@@ -8836,11 +8872,11 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30">
-      <c r="A22" s="465" t="s">
+    <row r="22" spans="1:11" ht="20">
+      <c r="A22" s="450" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="466"/>
+      <c r="B22" s="451"/>
       <c r="C22" s="133" t="s">
         <v>180</v>
       </c>
@@ -8865,10 +8901,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="21" thickBot="1">
-      <c r="A23" s="465" t="s">
+      <c r="A23" s="450" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="466"/>
+      <c r="B23" s="451"/>
       <c r="C23" s="133" t="s">
         <v>181</v>
       </c>
@@ -8892,11 +8928,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A24" s="465" t="s">
+    <row r="24" spans="1:11" ht="22" customHeight="1" thickBot="1">
+      <c r="A24" s="450" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="466"/>
+      <c r="B24" s="451"/>
       <c r="C24" s="133" t="s">
         <v>23</v>
       </c>
@@ -8911,11 +8947,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25">
-      <c r="A25" s="465" t="s">
+    <row r="25" spans="1:11" ht="20">
+      <c r="A25" s="450" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="466"/>
+      <c r="B25" s="451"/>
       <c r="C25" s="133" t="s">
         <v>183</v>
       </c>
@@ -8925,10 +8961,10 @@
       <c r="E25" s="162"/>
     </row>
     <row r="26" spans="1:11" ht="21" thickBot="1">
-      <c r="A26" s="476" t="s">
+      <c r="A26" s="452" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="477"/>
+      <c r="B26" s="453"/>
       <c r="C26" s="136" t="s">
         <v>182</v>
       </c>
@@ -8937,37 +8973,37 @@
       </c>
       <c r="E26" s="162"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75">
+    <row r="29" spans="1:11">
       <c r="B29" s="165"/>
       <c r="C29" s="165"/>
       <c r="D29" s="165"/>
       <c r="E29" s="163"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:11">
       <c r="B30" s="164"/>
       <c r="C30" s="164"/>
       <c r="D30" s="163"/>
       <c r="E30" s="163"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11">
       <c r="B31" s="164"/>
       <c r="C31" s="164"/>
       <c r="D31" s="163"/>
       <c r="E31" s="163"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75">
+    <row r="32" spans="1:11">
       <c r="B32" s="164"/>
       <c r="C32" s="164"/>
       <c r="D32" s="163"/>
       <c r="E32" s="163"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75">
+    <row r="33" spans="2:5">
       <c r="B33" s="164"/>
       <c r="C33" s="164"/>
       <c r="D33" s="163"/>
       <c r="E33" s="163"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75">
+    <row r="34" spans="2:5">
       <c r="B34" s="164"/>
       <c r="C34" s="164"/>
       <c r="D34" s="163"/>
@@ -8975,11 +9011,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B15:K15"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:B19"/>
@@ -8996,11 +9032,11 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9014,7 +9050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9024,26 +9060,26 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" style="55" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="55"/>
+    <col min="1" max="1" width="19.33203125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="73.5" style="55" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.95" customHeight="1">
+    <row r="1" spans="1:2" ht="22" customHeight="1">
       <c r="A1" s="478" t="s">
         <v>146</v>
       </c>
       <c r="B1" s="479"/>
     </row>
-    <row r="2" spans="1:2" s="157" customFormat="1" ht="15.75">
+    <row r="2" spans="1:2" s="157" customFormat="1" ht="16">
       <c r="A2" s="155" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="156"/>
     </row>
-    <row r="3" spans="1:2" ht="15.95" customHeight="1">
+    <row r="3" spans="1:2" ht="16" customHeight="1">
       <c r="A3" s="177" t="s">
         <v>274</v>
       </c>
@@ -9051,7 +9087,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.95" customHeight="1">
+    <row r="4" spans="1:2" ht="16" customHeight="1">
       <c r="A4" s="150" t="s">
         <v>144</v>
       </c>
@@ -9059,7 +9095,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.95" customHeight="1">
+    <row r="5" spans="1:2" ht="16" customHeight="1">
       <c r="A5" s="177" t="s">
         <v>270</v>
       </c>
@@ -9067,7 +9103,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.95" customHeight="1">
+    <row r="6" spans="1:2" ht="16" customHeight="1">
       <c r="A6" s="150" t="s">
         <v>222</v>
       </c>
@@ -9075,7 +9111,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.95" customHeight="1">
+    <row r="7" spans="1:2" ht="16" customHeight="1">
       <c r="A7" s="150" t="s">
         <v>143</v>
       </c>
@@ -9083,7 +9119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.95" customHeight="1">
+    <row r="8" spans="1:2" ht="16" customHeight="1">
       <c r="A8" s="150" t="s">
         <v>141</v>
       </c>
@@ -9091,7 +9127,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.95" customHeight="1">
+    <row r="9" spans="1:2" ht="16" customHeight="1">
       <c r="A9" s="150" t="s">
         <v>139</v>
       </c>
@@ -9099,7 +9135,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.95" customHeight="1">
+    <row r="10" spans="1:2" ht="16" customHeight="1">
       <c r="A10" s="150" t="s">
         <v>137</v>
       </c>
@@ -9107,7 +9143,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.95" customHeight="1">
+    <row r="11" spans="1:2" ht="16" customHeight="1">
       <c r="A11" s="150" t="s">
         <v>224</v>
       </c>
@@ -9115,7 +9151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.95" customHeight="1">
+    <row r="12" spans="1:2" ht="16" customHeight="1">
       <c r="A12" s="150" t="s">
         <v>135</v>
       </c>
@@ -9123,7 +9159,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.95" customHeight="1">
+    <row r="13" spans="1:2" ht="16" customHeight="1">
       <c r="A13" s="150" t="s">
         <v>133</v>
       </c>
@@ -9131,7 +9167,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.95" customHeight="1">
+    <row r="14" spans="1:2" ht="16" customHeight="1">
       <c r="A14" s="150" t="s">
         <v>131</v>
       </c>
@@ -9139,7 +9175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.95" customHeight="1">
+    <row r="15" spans="1:2" ht="16" customHeight="1">
       <c r="A15" s="150" t="s">
         <v>130</v>
       </c>
@@ -9147,25 +9183,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.95" customHeight="1">
+    <row r="16" spans="1:2" ht="16" customHeight="1">
       <c r="A16" s="150"/>
       <c r="B16" s="143" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95" customHeight="1">
+    <row r="17" spans="1:2" ht="16" customHeight="1">
       <c r="A17" s="150"/>
       <c r="B17" s="143" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.95" customHeight="1">
+    <row r="18" spans="1:2" ht="16" customHeight="1">
       <c r="A18" s="145" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="146"/>
     </row>
-    <row r="19" spans="1:2" ht="15.95" customHeight="1">
+    <row r="19" spans="1:2" ht="16" customHeight="1">
       <c r="A19" s="150" t="s">
         <v>226</v>
       </c>
@@ -9173,7 +9209,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.95" customHeight="1">
+    <row r="20" spans="1:2" ht="16" customHeight="1">
       <c r="A20" s="150" t="s">
         <v>227</v>
       </c>
@@ -9181,7 +9217,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="54.95" customHeight="1">
+    <row r="21" spans="1:2" ht="55" customHeight="1">
       <c r="A21" s="151" t="s">
         <v>176</v>
       </c>
@@ -9189,7 +9225,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.95" customHeight="1">
+    <row r="22" spans="1:2" ht="16" customHeight="1">
       <c r="A22" s="150" t="s">
         <v>177</v>
       </c>
@@ -9197,13 +9233,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.95" customHeight="1">
+    <row r="23" spans="1:2" ht="16" customHeight="1">
       <c r="A23" s="145" t="s">
         <v>126</v>
       </c>
       <c r="B23" s="147"/>
     </row>
-    <row r="24" spans="1:2" ht="15.95" customHeight="1">
+    <row r="24" spans="1:2" ht="16" customHeight="1">
       <c r="A24" s="150" t="s">
         <v>16</v>
       </c>
@@ -9211,19 +9247,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.95" customHeight="1">
+    <row r="25" spans="1:2" ht="16" customHeight="1">
       <c r="A25" s="150"/>
       <c r="B25" s="143" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.95" customHeight="1">
+    <row r="26" spans="1:2" ht="16" customHeight="1">
       <c r="A26" s="150"/>
       <c r="B26" s="143" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.95" customHeight="1">
+    <row r="27" spans="1:2" ht="16" customHeight="1">
       <c r="A27" s="150" t="s">
         <v>122</v>
       </c>
@@ -9231,7 +9267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.95" customHeight="1">
+    <row r="28" spans="1:2" ht="16" customHeight="1">
       <c r="A28" s="150" t="s">
         <v>120</v>
       </c>
@@ -9239,13 +9275,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.95" customHeight="1">
+    <row r="29" spans="1:2" ht="16" customHeight="1">
       <c r="A29" s="145" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="147"/>
     </row>
-    <row r="30" spans="1:2" ht="15.95" customHeight="1">
+    <row r="30" spans="1:2" ht="16" customHeight="1">
       <c r="A30" s="150" t="s">
         <v>264</v>
       </c>
@@ -9253,7 +9289,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.95" customHeight="1">
+    <row r="31" spans="1:2" ht="16" customHeight="1">
       <c r="A31" s="150" t="s">
         <v>16</v>
       </c>
@@ -9261,7 +9297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.95" customHeight="1">
+    <row r="32" spans="1:2" ht="16" customHeight="1">
       <c r="A32" s="150" t="s">
         <v>118</v>
       </c>
@@ -9269,13 +9305,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.95" customHeight="1">
+    <row r="33" spans="1:2" ht="16" customHeight="1">
       <c r="A33" s="145" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="147"/>
     </row>
-    <row r="34" spans="1:2" ht="15.95" customHeight="1">
+    <row r="34" spans="1:2" ht="16" customHeight="1">
       <c r="A34" s="150" t="s">
         <v>16</v>
       </c>
@@ -9283,13 +9319,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:2" ht="17" customHeight="1">
       <c r="A35" s="150"/>
       <c r="B35" s="118" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.95" customHeight="1">
+    <row r="36" spans="1:2" ht="16" customHeight="1">
       <c r="A36" s="152" t="s">
         <v>88</v>
       </c>
@@ -9297,7 +9333,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.95" customHeight="1">
+    <row r="37" spans="1:2" ht="16" customHeight="1">
       <c r="A37" s="150" t="s">
         <v>115</v>
       </c>
@@ -9305,7 +9341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="14">
       <c r="A38" s="150" t="s">
         <v>53</v>
       </c>
@@ -9313,7 +9349,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.95" customHeight="1">
+    <row r="39" spans="1:2" ht="16" customHeight="1">
       <c r="A39" s="177" t="s">
         <v>287</v>
       </c>
@@ -9321,7 +9357,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24.95" customHeight="1">
+    <row r="40" spans="1:2" ht="25" customHeight="1">
       <c r="A40" s="153" t="s">
         <v>113</v>
       </c>
@@ -9329,25 +9365,25 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.95" customHeight="1" thickBot="1">
+    <row r="41" spans="1:2" ht="16" customHeight="1" thickBot="1">
       <c r="A41" s="154"/>
       <c r="B41" s="149" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.95" customHeight="1">
+    <row r="42" spans="1:2" ht="16" customHeight="1">
       <c r="A42" s="148"/>
       <c r="B42" s="148"/>
     </row>
-    <row r="43" spans="1:2" ht="15.95" customHeight="1">
+    <row r="43" spans="1:2" ht="16" customHeight="1">
       <c r="A43" s="148"/>
       <c r="B43" s="148"/>
     </row>
-    <row r="44" spans="1:2" ht="15.95" customHeight="1">
+    <row r="44" spans="1:2" ht="16" customHeight="1">
       <c r="A44" s="148"/>
       <c r="B44" s="148"/>
     </row>
-    <row r="45" spans="1:2" ht="15.95" customHeight="1">
+    <row r="45" spans="1:2" ht="16" customHeight="1">
       <c r="A45" s="148"/>
       <c r="B45" s="148"/>
     </row>
@@ -9357,7 +9393,7 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup scale="96" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup scale="99" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -9367,7 +9403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9377,26 +9413,26 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="23" style="55" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="55" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="55"/>
+    <col min="2" max="2" width="69.6640625" style="55" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.1" customHeight="1">
+    <row r="1" spans="1:2" ht="29" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>146</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="158" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="147"/>
     </row>
-    <row r="3" spans="1:2" ht="15.95" customHeight="1">
+    <row r="3" spans="1:2" ht="16" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>145</v>
       </c>
@@ -9404,7 +9440,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.95" customHeight="1">
+    <row r="4" spans="1:2" ht="16" customHeight="1">
       <c r="A4" s="57" t="s">
         <v>144</v>
       </c>
@@ -9412,7 +9448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.95" customHeight="1">
+    <row r="5" spans="1:2" ht="16" customHeight="1">
       <c r="A5" s="179" t="s">
         <v>270</v>
       </c>
@@ -9420,7 +9456,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.95" customHeight="1">
+    <row r="6" spans="1:2" ht="16" customHeight="1">
       <c r="A6" s="57" t="s">
         <v>135</v>
       </c>
@@ -9428,7 +9464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.95" customHeight="1">
+    <row r="7" spans="1:2" ht="16" customHeight="1">
       <c r="A7" s="57" t="s">
         <v>133</v>
       </c>
@@ -9436,7 +9472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.95" customHeight="1">
+    <row r="8" spans="1:2" ht="16" customHeight="1">
       <c r="A8" s="57" t="s">
         <v>131</v>
       </c>
@@ -9444,7 +9480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.95" customHeight="1">
+    <row r="9" spans="1:2" ht="16" customHeight="1">
       <c r="A9" s="57" t="s">
         <v>148</v>
       </c>
@@ -9460,7 +9496,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.95" customHeight="1">
+    <row r="11" spans="1:2" ht="16" customHeight="1">
       <c r="A11" s="57" t="s">
         <v>150</v>
       </c>
@@ -9468,31 +9504,31 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.95" customHeight="1">
+    <row r="12" spans="1:2" ht="16" customHeight="1">
       <c r="A12" s="57"/>
       <c r="B12" s="118" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.95" customHeight="1">
+    <row r="13" spans="1:2" ht="16" customHeight="1">
       <c r="A13" s="57"/>
       <c r="B13" s="118" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.95" customHeight="1">
+    <row r="14" spans="1:2" ht="16" customHeight="1">
       <c r="A14" s="57"/>
       <c r="B14" s="118" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.95" customHeight="1">
+    <row r="15" spans="1:2" ht="16" customHeight="1">
       <c r="A15" s="57"/>
       <c r="B15" s="118" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.95" customHeight="1">
+    <row r="16" spans="1:2" ht="16" customHeight="1">
       <c r="A16" s="57" t="s">
         <v>152</v>
       </c>
@@ -9500,31 +9536,31 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.95" customHeight="1">
+    <row r="17" spans="1:2" ht="16" customHeight="1">
       <c r="A17" s="57"/>
       <c r="B17" s="118" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.95" customHeight="1">
+    <row r="18" spans="1:2" ht="16" customHeight="1">
       <c r="A18" s="57"/>
       <c r="B18" s="118" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.95" customHeight="1">
+    <row r="19" spans="1:2" ht="16" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="118" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="14">
       <c r="A20" s="57"/>
       <c r="B20" s="118" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.95" customHeight="1">
+    <row r="21" spans="1:2" ht="16" customHeight="1">
       <c r="A21" s="57" t="s">
         <v>153</v>
       </c>
@@ -9532,31 +9568,31 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.95" customHeight="1">
+    <row r="22" spans="1:2" ht="16" customHeight="1">
       <c r="A22" s="57"/>
       <c r="B22" s="118" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.95" customHeight="1">
+    <row r="23" spans="1:2" ht="16" customHeight="1">
       <c r="A23" s="57"/>
       <c r="B23" s="118" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.95" customHeight="1">
+    <row r="24" spans="1:2" ht="16" customHeight="1">
       <c r="A24" s="57"/>
       <c r="B24" s="118" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.95" customHeight="1">
+    <row r="25" spans="1:2" ht="16" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="118" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.95" customHeight="1">
+    <row r="26" spans="1:2" ht="16" customHeight="1">
       <c r="A26" s="57" t="s">
         <v>154</v>
       </c>
@@ -9564,7 +9600,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5">
+    <row r="27" spans="1:2" ht="28">
       <c r="A27" s="57" t="s">
         <v>155</v>
       </c>
@@ -9572,7 +9608,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.95" customHeight="1">
+    <row r="28" spans="1:2" ht="16" customHeight="1">
       <c r="A28" s="57" t="s">
         <v>156</v>
       </c>
@@ -9580,31 +9616,31 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.95" customHeight="1">
+    <row r="29" spans="1:2" ht="16" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="118" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.95" customHeight="1">
+    <row r="30" spans="1:2" ht="16" customHeight="1">
       <c r="A30" s="57"/>
       <c r="B30" s="118" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.95" customHeight="1">
+    <row r="31" spans="1:2" ht="16" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="118" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.95" customHeight="1">
+    <row r="32" spans="1:2" ht="16" customHeight="1">
       <c r="A32" s="57"/>
       <c r="B32" s="118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.95" customHeight="1">
+    <row r="33" spans="1:2" ht="16" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>162</v>
       </c>
@@ -9612,13 +9648,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.95" customHeight="1">
+    <row r="34" spans="1:2" ht="16" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.95" customHeight="1">
+    <row r="35" spans="1:2" ht="16" customHeight="1">
       <c r="A35" s="57" t="s">
         <v>165</v>
       </c>
@@ -9626,7 +9662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.95" customHeight="1">
+    <row r="36" spans="1:2" ht="16" customHeight="1">
       <c r="A36" s="57" t="s">
         <v>172</v>
       </c>
@@ -9634,13 +9670,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30.95" customHeight="1">
+    <row r="37" spans="1:2" ht="31" customHeight="1">
       <c r="A37" s="57"/>
       <c r="B37" s="118" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="32.1" customHeight="1" thickBot="1">
+    <row r="38" spans="1:2" ht="32" customHeight="1" thickBot="1">
       <c r="A38" s="159" t="s">
         <v>205</v>
       </c>
@@ -9648,31 +9684,31 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="40" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="41" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="42" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="43" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="44" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="45" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="46" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="47" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="48" spans="1:2" ht="15.95" customHeight="1"/>
-    <row r="49" ht="15.95" customHeight="1"/>
-    <row r="50" ht="15.95" customHeight="1"/>
-    <row r="51" ht="15.95" customHeight="1"/>
-    <row r="52" ht="15.95" customHeight="1"/>
-    <row r="53" ht="15.95" customHeight="1"/>
-    <row r="54" ht="15.95" customHeight="1"/>
-    <row r="55" ht="15.95" customHeight="1"/>
-    <row r="56" ht="15.95" customHeight="1"/>
-    <row r="57" ht="15.95" customHeight="1"/>
-    <row r="58" ht="15.95" customHeight="1"/>
-    <row r="59" ht="15.95" customHeight="1"/>
+    <row r="39" spans="1:2" ht="16" customHeight="1"/>
+    <row r="40" spans="1:2" ht="16" customHeight="1"/>
+    <row r="41" spans="1:2" ht="16" customHeight="1"/>
+    <row r="42" spans="1:2" ht="16" customHeight="1"/>
+    <row r="43" spans="1:2" ht="16" customHeight="1"/>
+    <row r="44" spans="1:2" ht="16" customHeight="1"/>
+    <row r="45" spans="1:2" ht="16" customHeight="1"/>
+    <row r="46" spans="1:2" ht="16" customHeight="1"/>
+    <row r="47" spans="1:2" ht="16" customHeight="1"/>
+    <row r="48" spans="1:2" ht="16" customHeight="1"/>
+    <row r="49" ht="16" customHeight="1"/>
+    <row r="50" ht="16" customHeight="1"/>
+    <row r="51" ht="16" customHeight="1"/>
+    <row r="52" ht="16" customHeight="1"/>
+    <row r="53" ht="16" customHeight="1"/>
+    <row r="54" ht="16" customHeight="1"/>
+    <row r="55" ht="16" customHeight="1"/>
+    <row r="56" ht="16" customHeight="1"/>
+    <row r="57" ht="16" customHeight="1"/>
+    <row r="58" ht="16" customHeight="1"/>
+    <row r="59" ht="16" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.5" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup scale="99" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
